--- a/Jogos_do_Dia/2023-05-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -695,25 +695,25 @@
         <v>2.03</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="G3" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
         <v>1.06</v>
@@ -763,10 +763,10 @@
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N3" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O3" t="n">
         <v>1.45</v>
@@ -805,13 +805,13 @@
         <v>2.39</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AD3" t="n">
         <v>1.54</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H4" t="n">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="I4" t="n">
         <v>1.11</v>
@@ -867,16 +867,16 @@
         <v>6.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="L4" t="n">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="M4" t="n">
-        <v>2.75</v>
+        <v>2.68</v>
       </c>
       <c r="N4" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="O4" t="n">
         <v>1.62</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
         <v>1.08</v>
@@ -983,10 +983,10 @@
         <v>2.6</v>
       </c>
       <c r="M5" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N5" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O5" t="n">
         <v>1.51</v>
@@ -1025,19 +1025,19 @@
         <v>2.62</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF5" t="n">
         <v>1.73</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1135,28 +1135,28 @@
         <v>2.54</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>3.36</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="7">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.03</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="I8" t="n">
         <v>1.04</v>
@@ -1313,10 +1313,10 @@
         <v>3.47</v>
       </c>
       <c r="M8" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="N8" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1364,16 +1364,16 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.4</v>
+        <v>2.19</v>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.12</v>
       </c>
       <c r="H9" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="I9" t="n">
         <v>1.05</v>
@@ -1423,10 +1423,10 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="N9" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
@@ -1465,28 +1465,28 @@
         <v>1.22</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="10">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.85</v>
+        <v>3.62</v>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="I10" t="n">
         <v>1.07</v>
@@ -1533,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N10" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>3.31</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.37</v>
       </c>
       <c r="I11" t="n">
         <v>1.05</v>
@@ -1643,10 +1643,10 @@
         <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="N11" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="O11" t="n">
         <v>1.38</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.27</v>
       </c>
       <c r="H12" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="I12" t="n">
         <v>1.05</v>
@@ -1753,10 +1753,10 @@
         <v>3.3</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="N12" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="O12" t="n">
         <v>1.42</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.45</v>
+        <v>2.34</v>
       </c>
       <c r="G13" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="H13" t="n">
-        <v>2.75</v>
+        <v>2.61</v>
       </c>
       <c r="I13" t="n">
         <v>1.08</v>
@@ -1863,10 +1863,10 @@
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="N13" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.01</v>
       </c>
       <c r="I14" t="n">
         <v>1.07</v>
@@ -1973,10 +1973,10 @@
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="N14" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="G15" t="n">
-        <v>3.25</v>
+        <v>3.27</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I15" t="n">
         <v>1.06</v>
@@ -2083,10 +2083,10 @@
         <v>3.1</v>
       </c>
       <c r="M15" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N15" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="O15" t="n">
         <v>1.43</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="H16" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="I16" t="n">
         <v>1.06</v>
@@ -2193,10 +2193,10 @@
         <v>3.5</v>
       </c>
       <c r="M16" t="n">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="N16" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O16" t="n">
         <v>1.37</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>2.95</v>
+        <v>2.72</v>
       </c>
       <c r="H17" t="n">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="I17" t="n">
         <v>1.09</v>
@@ -2297,16 +2297,16 @@
         <v>6.5</v>
       </c>
       <c r="K17" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="L17" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="M17" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="N17" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="O17" t="n">
         <v>1.51</v>
@@ -2366,7 +2366,7 @@
         <v>3.2</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="18">
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>3.16</v>
       </c>
       <c r="H18" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I18" t="n">
         <v>1.02</v>
@@ -2413,10 +2413,10 @@
         <v>4.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="N18" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>3.03</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="I19" t="n">
         <v>1.08</v>
@@ -2523,10 +2523,10 @@
         <v>2.75</v>
       </c>
       <c r="M19" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="N19" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="O19" t="n">
         <v>1.45</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="I20" t="n">
         <v>1.06</v>
@@ -2636,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
@@ -2693,10 +2693,10 @@
         <v>2.26</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="21">
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="G21" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>5.02</v>
       </c>
       <c r="I21" t="n">
         <v>1.06</v>
@@ -2743,10 +2743,10 @@
         <v>3.24</v>
       </c>
       <c r="M21" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="N21" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="O21" t="n">
         <v>1.38</v>
@@ -2832,37 +2832,37 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="H22" t="n">
-        <v>4.6</v>
+        <v>5.35</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.48</v>
+        <v>1.84</v>
       </c>
       <c r="N22" t="n">
-        <v>2.65</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Q22" t="n">
         <v>1.57</v>
@@ -2871,13 +2871,13 @@
         <v>2.25</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V22" t="n">
         <v>1.26</v>
@@ -2898,25 +2898,25 @@
         <v>1.23</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.5</v>
+        <v>7.75</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF22" t="n">
         <v>1.9</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="23">
@@ -2942,52 +2942,52 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.6</v>
+        <v>3.03</v>
       </c>
       <c r="G23" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H23" t="n">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="M23" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="N23" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V23" t="n">
         <v>1.48</v>
@@ -3017,16 +3017,16 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF23" t="n">
         <v>1.82</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="24">
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="G24" t="n">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.09</v>
       </c>
       <c r="I24" t="n">
         <v>1.06</v>
@@ -3073,10 +3073,10 @@
         <v>3.42</v>
       </c>
       <c r="M24" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="N24" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="O24" t="n">
         <v>1.41</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="G25" t="n">
-        <v>3.9</v>
+        <v>3.66</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="I25" t="n">
         <v>1.02</v>
@@ -3183,10 +3183,10 @@
         <v>4.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="N25" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="O25" t="n">
         <v>1.27</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>3.74</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I26" t="n">
         <v>1.03</v>
@@ -3293,10 +3293,10 @@
         <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="N26" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="O26" t="n">
         <v>1.27</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.2</v>
+        <v>3.86</v>
       </c>
       <c r="G28" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H28" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="I28" t="n">
         <v>1.06</v>
@@ -3513,10 +3513,10 @@
         <v>3.2</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="N28" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O28" t="n">
         <v>1.41</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>3.02</v>
       </c>
       <c r="H29" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="I29" t="n">
         <v>1.04</v>
@@ -3623,10 +3623,10 @@
         <v>2.75</v>
       </c>
       <c r="M29" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="N29" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="O29" t="n">
         <v>1.5</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="G30" t="n">
-        <v>3.55</v>
+        <v>3.33</v>
       </c>
       <c r="H30" t="n">
-        <v>4.4</v>
+        <v>4.11</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3733,10 +3733,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="G31" t="n">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="H31" t="n">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="I31" t="n">
         <v>1.1</v>
@@ -3843,10 +3843,10 @@
         <v>2.4</v>
       </c>
       <c r="M31" t="n">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="N31" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="O31" t="n">
         <v>1.46</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.7</v>
+        <v>2.53</v>
       </c>
       <c r="G32" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="H32" t="n">
-        <v>2.75</v>
+        <v>2.53</v>
       </c>
       <c r="I32" t="n">
         <v>1.08</v>
@@ -3953,7 +3953,7 @@
         <v>2.87</v>
       </c>
       <c r="M32" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="N32" t="n">
         <v>1.53</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="I33" t="n">
         <v>1.08</v>
@@ -4063,10 +4063,10 @@
         <v>2.9</v>
       </c>
       <c r="M33" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="N33" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="O33" t="n">
         <v>1.47</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="G34" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="H34" t="n">
-        <v>6.5</v>
+        <v>5.84</v>
       </c>
       <c r="I34" t="n">
         <v>1.07</v>
@@ -4173,10 +4173,10 @@
         <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="N34" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="O34" t="n">
         <v>1.44</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2.83</v>
       </c>
       <c r="H35" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="I35" t="n">
         <v>1.08</v>
@@ -4283,10 +4283,10 @@
         <v>2.9</v>
       </c>
       <c r="M35" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="N35" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O35" t="n">
         <v>1.49</v>
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H36" t="n">
-        <v>3.9</v>
+        <v>3.51</v>
       </c>
       <c r="I36" t="n">
         <v>1.11</v>
@@ -4393,10 +4393,10 @@
         <v>2.4</v>
       </c>
       <c r="M36" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="N36" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O36" t="n">
         <v>1.54</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.7</v>
+        <v>2.53</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="H37" t="n">
-        <v>2.7</v>
+        <v>2.53</v>
       </c>
       <c r="I37" t="n">
         <v>1.1</v>
@@ -4503,7 +4503,7 @@
         <v>2.8</v>
       </c>
       <c r="M37" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="N37" t="n">
         <v>1.53</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G42" t="n">
-        <v>3.3</v>
+        <v>3.13</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>3.37</v>
       </c>
       <c r="I42" t="n">
         <v>1.06</v>
@@ -5053,10 +5053,10 @@
         <v>3.3</v>
       </c>
       <c r="M42" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="N42" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="O42" t="n">
         <v>1.39</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="G43" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="I43" t="n">
         <v>1.04</v>
@@ -5163,10 +5163,10 @@
         <v>4.05</v>
       </c>
       <c r="M43" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="N43" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="O43" t="n">
         <v>1.35</v>
@@ -5214,7 +5214,7 @@
         <v>2.27</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE43" t="n">
         <v>1.25</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="G44" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>3.58</v>
       </c>
       <c r="I44" t="n">
         <v>1.02</v>
@@ -5273,10 +5273,10 @@
         <v>4.25</v>
       </c>
       <c r="M44" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="N44" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="O44" t="n">
         <v>1.27</v>
@@ -5324,10 +5324,10 @@
         <v>4.42</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF44" t="n">
         <v>1.35</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="G45" t="n">
-        <v>3.5</v>
+        <v>3.03</v>
       </c>
       <c r="H45" t="n">
-        <v>2.6</v>
+        <v>2.23</v>
       </c>
       <c r="I45" t="n">
         <v>1.03</v>
@@ -5383,10 +5383,10 @@
         <v>4.35</v>
       </c>
       <c r="M45" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="N45" t="n">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="O45" t="n">
         <v>1.32</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H46" t="n">
-        <v>2.6</v>
+        <v>2.23</v>
       </c>
       <c r="I46" t="n">
         <v>1.06</v>
@@ -5493,10 +5493,10 @@
         <v>3.3</v>
       </c>
       <c r="M46" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="N46" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="O46" t="n">
         <v>1.41</v>
@@ -5580,13 +5580,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>3.21</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -5601,10 +5601,10 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -5800,13 +5800,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.07</v>
+        <v>2.75</v>
       </c>
       <c r="G49" t="n">
         <v>3.1</v>
       </c>
       <c r="H49" t="n">
-        <v>3.45</v>
+        <v>2.6</v>
       </c>
       <c r="I49" t="n">
         <v>1.1</v>
@@ -5821,10 +5821,10 @@
         <v>2.55</v>
       </c>
       <c r="M49" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N49" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O49" t="n">
         <v>1.52</v>
@@ -5910,13 +5910,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="G50" t="n">
         <v>3.2</v>
       </c>
       <c r="H50" t="n">
-        <v>3.9</v>
+        <v>4.04</v>
       </c>
       <c r="I50" t="n">
         <v>1.09</v>
@@ -5931,10 +5931,10 @@
         <v>2.8</v>
       </c>
       <c r="M50" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="N50" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="O50" t="n">
         <v>1.52</v>
@@ -6350,13 +6350,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.4</v>
+        <v>2.61</v>
       </c>
       <c r="G54" t="n">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="H54" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="I54" t="n">
         <v>1.05</v>
@@ -6371,10 +6371,10 @@
         <v>3.6</v>
       </c>
       <c r="M54" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="N54" t="n">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="O54" t="n">
         <v>1.4</v>
@@ -6460,13 +6460,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.55</v>
+        <v>2.36</v>
       </c>
       <c r="G55" t="n">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="H55" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="I55" t="n">
         <v>1.03</v>
@@ -6481,10 +6481,10 @@
         <v>4.33</v>
       </c>
       <c r="M55" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="N55" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="O55" t="n">
         <v>1.3</v>
@@ -6570,13 +6570,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>3.71</v>
       </c>
       <c r="H56" t="n">
-        <v>4.1</v>
+        <v>3.96</v>
       </c>
       <c r="I56" t="n">
         <v>1.02</v>
@@ -6591,10 +6591,10 @@
         <v>4.33</v>
       </c>
       <c r="M56" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="N56" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O56" t="n">
         <v>1.29</v>
@@ -6680,13 +6680,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.4</v>
+        <v>3.21</v>
       </c>
       <c r="G57" t="n">
-        <v>3.1</v>
+        <v>3.46</v>
       </c>
       <c r="H57" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
         <v>1.07</v>
@@ -6701,10 +6701,10 @@
         <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="N57" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="O57" t="n">
         <v>1.44</v>
@@ -6790,13 +6790,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="G58" t="n">
-        <v>3.3</v>
+        <v>3.41</v>
       </c>
       <c r="H58" t="n">
-        <v>2.4</v>
+        <v>2.69</v>
       </c>
       <c r="I58" t="n">
         <v>1.06</v>
@@ -6811,10 +6811,10 @@
         <v>3.4</v>
       </c>
       <c r="M58" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="N58" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="O58" t="n">
         <v>1.4</v>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="G59" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="H59" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="I59" t="n">
         <v>1.07</v>
@@ -6921,10 +6921,10 @@
         <v>2.85</v>
       </c>
       <c r="M59" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="N59" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="O59" t="n">
         <v>1.45</v>
@@ -7010,13 +7010,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G60" t="n">
-        <v>3.1</v>
+        <v>3.01</v>
       </c>
       <c r="H60" t="n">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="I60" t="n">
         <v>1.07</v>
@@ -7031,10 +7031,10 @@
         <v>2.85</v>
       </c>
       <c r="M60" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="N60" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="O60" t="n">
         <v>1.45</v>
@@ -7120,13 +7120,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="G61" t="n">
-        <v>3.3</v>
+        <v>3.16</v>
       </c>
       <c r="H61" t="n">
-        <v>3.4</v>
+        <v>3.16</v>
       </c>
       <c r="I61" t="n">
         <v>1.06</v>
@@ -7141,10 +7141,10 @@
         <v>3.2</v>
       </c>
       <c r="M61" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="N61" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O61" t="n">
         <v>1.41</v>
@@ -7340,13 +7340,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="G63" t="n">
-        <v>3.3</v>
+        <v>3.09</v>
       </c>
       <c r="H63" t="n">
-        <v>3.8</v>
+        <v>3.14</v>
       </c>
       <c r="I63" t="n">
         <v>1.06</v>
@@ -7361,10 +7361,10 @@
         <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="N63" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="O63" t="n">
         <v>1.44</v>
@@ -7450,13 +7450,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.75</v>
+        <v>1.51</v>
       </c>
       <c r="G64" t="n">
-        <v>3.75</v>
+        <v>4.12</v>
       </c>
       <c r="H64" t="n">
-        <v>4.5</v>
+        <v>5.15</v>
       </c>
       <c r="I64" t="n">
         <v>1.04</v>
@@ -7471,10 +7471,10 @@
         <v>3.78</v>
       </c>
       <c r="M64" t="n">
-        <v>1.98</v>
+        <v>1.77</v>
       </c>
       <c r="N64" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="O64" t="n">
         <v>1.33</v>
@@ -7670,13 +7670,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G66" t="n">
-        <v>3.7</v>
+        <v>3.83</v>
       </c>
       <c r="H66" t="n">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="I66" t="n">
         <v>1.06</v>
@@ -7691,10 +7691,10 @@
         <v>3.63</v>
       </c>
       <c r="M66" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="N66" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="O66" t="n">
         <v>1.4</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="F67" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="H67" t="n">
         <v>2.8</v>
-      </c>
-      <c r="G67" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2.55</v>
       </c>
       <c r="I67" t="n">
         <v>1.07</v>
@@ -7801,10 +7801,10 @@
         <v>3.1</v>
       </c>
       <c r="M67" t="n">
-        <v>2.24</v>
+        <v>2.13</v>
       </c>
       <c r="N67" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="O67" t="n">
         <v>1.44</v>
@@ -7890,13 +7890,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="G68" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="H68" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I68" t="n">
         <v>1.07</v>
@@ -7911,7 +7911,7 @@
         <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N68" t="n">
         <v>1.6</v>
@@ -8000,13 +8000,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="G69" t="n">
-        <v>3.2</v>
+        <v>3.11</v>
       </c>
       <c r="H69" t="n">
-        <v>3.8</v>
+        <v>3.48</v>
       </c>
       <c r="I69" t="n">
         <v>1.06</v>
@@ -8021,10 +8021,10 @@
         <v>3.55</v>
       </c>
       <c r="M69" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="N69" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="O69" t="n">
         <v>1.4</v>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="G70" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H70" t="n">
         <v>2.55</v>
@@ -8131,10 +8131,10 @@
         <v>2.7</v>
       </c>
       <c r="M70" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="N70" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O70" t="n">
         <v>1.5</v>
@@ -8220,13 +8220,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="H71" t="n">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="I71" t="n">
         <v>1.07</v>
@@ -8241,10 +8241,10 @@
         <v>3</v>
       </c>
       <c r="M71" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="N71" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="O71" t="n">
         <v>1.46</v>
@@ -8330,13 +8330,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="H72" t="n">
-        <v>3.15</v>
+        <v>2.93</v>
       </c>
       <c r="I72" t="n">
         <v>1.08</v>
@@ -8351,10 +8351,10 @@
         <v>2.65</v>
       </c>
       <c r="M72" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="N72" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O72" t="n">
         <v>1.51</v>
@@ -8440,13 +8440,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="G73" t="n">
-        <v>3.35</v>
+        <v>3.14</v>
       </c>
       <c r="H73" t="n">
-        <v>3.3</v>
+        <v>3.09</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -8461,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="N73" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -8550,13 +8550,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="G74" t="n">
-        <v>3.3</v>
+        <v>3.01</v>
       </c>
       <c r="H74" t="n">
-        <v>3.3</v>
+        <v>3.01</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -8571,10 +8571,10 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="N74" t="n">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -8660,13 +8660,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.47</v>
+        <v>2.29</v>
       </c>
       <c r="G75" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="H75" t="n">
-        <v>2.47</v>
+        <v>2.29</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -8681,10 +8681,10 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="N75" t="n">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -9100,13 +9100,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.7</v>
+        <v>2.28</v>
       </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="H79" t="n">
-        <v>2.6</v>
+        <v>2.97</v>
       </c>
       <c r="I79" t="n">
         <v>1.07</v>
@@ -9121,10 +9121,10 @@
         <v>3.2</v>
       </c>
       <c r="M79" t="n">
-        <v>2.15</v>
+        <v>2.01</v>
       </c>
       <c r="N79" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O79" t="n">
         <v>1.44</v>
@@ -9210,10 +9210,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G80" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H80" t="n">
         <v>4.6</v>
@@ -9231,10 +9231,10 @@
         <v>3.5</v>
       </c>
       <c r="M80" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="N80" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="O80" t="n">
         <v>1.35</v>
@@ -9428,13 +9428,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="G82" t="n">
-        <v>3.55</v>
+        <v>3.43</v>
       </c>
       <c r="H82" t="n">
-        <v>3.85</v>
+        <v>3.71</v>
       </c>
       <c r="I82" t="n">
         <v>1.04</v>
@@ -9449,10 +9449,10 @@
         <v>4</v>
       </c>
       <c r="M82" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="N82" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O82" t="n">
         <v>1.31</v>
@@ -9538,13 +9538,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.7</v>
+        <v>2.79</v>
       </c>
       <c r="G83" t="n">
-        <v>3.1</v>
+        <v>2.99</v>
       </c>
       <c r="H83" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="I83" t="n">
         <v>1.08</v>
@@ -9559,10 +9559,10 @@
         <v>2.93</v>
       </c>
       <c r="M83" t="n">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="N83" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="O83" t="n">
         <v>1.48</v>
@@ -9648,13 +9648,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3.85</v>
+        <v>3.54</v>
       </c>
       <c r="G84" t="n">
-        <v>3.85</v>
+        <v>3.54</v>
       </c>
       <c r="H84" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="I84" t="n">
         <v>1.04</v>
@@ -9669,10 +9669,10 @@
         <v>4.47</v>
       </c>
       <c r="M84" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="N84" t="n">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="O84" t="n">
         <v>1.32</v>
@@ -9758,13 +9758,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="G85" t="n">
-        <v>3.8</v>
+        <v>3.41</v>
       </c>
       <c r="H85" t="n">
-        <v>4.5</v>
+        <v>3.86</v>
       </c>
       <c r="I85" t="n">
         <v>1.04</v>
@@ -9779,10 +9779,10 @@
         <v>3.75</v>
       </c>
       <c r="M85" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="N85" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="O85" t="n">
         <v>1.33</v>
@@ -9868,13 +9868,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="G86" t="n">
-        <v>4.4</v>
+        <v>4.06</v>
       </c>
       <c r="H86" t="n">
-        <v>6.4</v>
+        <v>5.85</v>
       </c>
       <c r="I86" t="n">
         <v>1.04</v>
@@ -9889,7 +9889,7 @@
         <v>4.33</v>
       </c>
       <c r="M86" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="N86" t="n">
         <v>2.15</v>
@@ -9940,7 +9940,7 @@
         <v>4.42</v>
       </c>
       <c r="AD86" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE86" t="n">
         <v>1.39</v>
@@ -9978,13 +9978,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="G87" t="n">
-        <v>3.4</v>
+        <v>3.17</v>
       </c>
       <c r="H87" t="n">
-        <v>3.8</v>
+        <v>3.57</v>
       </c>
       <c r="I87" t="n">
         <v>1.07</v>
@@ -9999,10 +9999,10 @@
         <v>3</v>
       </c>
       <c r="M87" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N87" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="O87" t="n">
         <v>1.45</v>
@@ -10050,7 +10050,7 @@
         <v>3.24</v>
       </c>
       <c r="AD87" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE87" t="n">
         <v>1.37</v>
@@ -10088,13 +10088,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="G88" t="n">
-        <v>3.15</v>
+        <v>2.99</v>
       </c>
       <c r="H88" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="I88" t="n">
         <v>1.05</v>
@@ -10109,10 +10109,10 @@
         <v>3.5</v>
       </c>
       <c r="M88" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="N88" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="O88" t="n">
         <v>1.4</v>
@@ -10160,10 +10160,10 @@
         <v>2.03</v>
       </c>
       <c r="AD88" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE88" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF88" t="n">
         <v>1.36</v>
@@ -10198,13 +10198,13 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="G89" t="n">
-        <v>3.25</v>
+        <v>3.08</v>
       </c>
       <c r="H89" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="I89" t="n">
         <v>1.06</v>
@@ -10219,10 +10219,10 @@
         <v>3.1</v>
       </c>
       <c r="M89" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="N89" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="O89" t="n">
         <v>1.41</v>
@@ -10270,10 +10270,10 @@
         <v>1.87</v>
       </c>
       <c r="AD89" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE89" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF89" t="n">
         <v>1.48</v>
@@ -10308,13 +10308,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="G90" t="n">
-        <v>3.8</v>
+        <v>3.28</v>
       </c>
       <c r="H90" t="n">
-        <v>4.6</v>
+        <v>3.69</v>
       </c>
       <c r="I90" t="n">
         <v>1.05</v>
@@ -10329,10 +10329,10 @@
         <v>3.47</v>
       </c>
       <c r="M90" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="N90" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O90" t="n">
         <v>1.38</v>
@@ -10418,13 +10418,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.8</v>
+        <v>2.53</v>
       </c>
       <c r="G91" t="n">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="H91" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I91" t="n">
         <v>1.05</v>
@@ -10439,10 +10439,10 @@
         <v>3.75</v>
       </c>
       <c r="M91" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="N91" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="O91" t="n">
         <v>1.35</v>
@@ -10528,13 +10528,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G92" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="H92" t="n">
-        <v>3.8</v>
+        <v>3.62</v>
       </c>
       <c r="I92" t="n">
         <v>1.11</v>
@@ -10549,10 +10549,10 @@
         <v>2.3</v>
       </c>
       <c r="M92" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="N92" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="O92" t="n">
         <v>1.58</v>
@@ -10638,13 +10638,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>3.34</v>
       </c>
       <c r="G93" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="H93" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="I93" t="n">
         <v>1.11</v>
@@ -10653,16 +10653,16 @@
         <v>6.5</v>
       </c>
       <c r="K93" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="L93" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="M93" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="N93" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="O93" t="n">
         <v>1.59</v>
@@ -10748,13 +10748,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>8</v>
+        <v>6.15</v>
       </c>
       <c r="G94" t="n">
-        <v>5.5</v>
+        <v>4.96</v>
       </c>
       <c r="H94" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="I94" t="n">
         <v>1.02</v>
@@ -10769,10 +10769,10 @@
         <v>7.5</v>
       </c>
       <c r="M94" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="N94" t="n">
-        <v>3.3</v>
+        <v>2.86</v>
       </c>
       <c r="O94" t="n">
         <v>1.18</v>
@@ -10858,13 +10858,13 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="G95" t="n">
-        <v>4.6</v>
+        <v>5.33</v>
       </c>
       <c r="H95" t="n">
-        <v>5.5</v>
+        <v>7.02</v>
       </c>
       <c r="I95" t="n">
         <v>1.02</v>
@@ -10879,10 +10879,10 @@
         <v>5.7</v>
       </c>
       <c r="M95" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="N95" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="O95" t="n">
         <v>1.25</v>
@@ -10968,13 +10968,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G96" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H96" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="I96" t="n">
         <v>1.02</v>
@@ -10989,10 +10989,10 @@
         <v>4.45</v>
       </c>
       <c r="M96" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="N96" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O96" t="n">
         <v>1.3</v>
@@ -11078,13 +11078,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="G97" t="n">
-        <v>3.15</v>
+        <v>3.26</v>
       </c>
       <c r="H97" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I97" t="n">
         <v>1.09</v>
@@ -11093,16 +11093,16 @@
         <v>8</v>
       </c>
       <c r="K97" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="L97" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M97" t="n">
         <v>2.4</v>
       </c>
-      <c r="M97" t="n">
-        <v>2.55</v>
-      </c>
       <c r="N97" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="O97" t="n">
         <v>1.55</v>
@@ -11162,7 +11162,7 @@
         <v>3.3</v>
       </c>
       <c r="AH97" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="98">
@@ -11188,13 +11188,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="G98" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="H98" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="I98" t="n">
         <v>1.2</v>
@@ -11203,16 +11203,16 @@
         <v>4.5</v>
       </c>
       <c r="K98" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="L98" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M98" t="n">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="N98" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="O98" t="n">
         <v>1.68</v>
@@ -11301,10 +11301,10 @@
         <v>1.89</v>
       </c>
       <c r="G99" t="n">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="H99" t="n">
-        <v>4.2</v>
+        <v>4.13</v>
       </c>
       <c r="I99" t="n">
         <v>1.04</v>
@@ -11319,10 +11319,10 @@
         <v>2.79</v>
       </c>
       <c r="M99" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="N99" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="O99" t="n">
         <v>1.46</v>
@@ -11382,7 +11382,7 @@
         <v>3.1</v>
       </c>
       <c r="AH99" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="100">
@@ -11408,13 +11408,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="G100" t="n">
-        <v>3.35</v>
+        <v>3.31</v>
       </c>
       <c r="H100" t="n">
-        <v>3.6</v>
+        <v>3.57</v>
       </c>
       <c r="I100" t="n">
         <v>1.07</v>
@@ -11429,10 +11429,10 @@
         <v>3</v>
       </c>
       <c r="M100" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="N100" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="O100" t="n">
         <v>1.46</v>
@@ -11492,7 +11492,7 @@
         <v>3.4</v>
       </c>
       <c r="AH100" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="101">
@@ -11518,13 +11518,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="H101" t="n">
-        <v>3.65</v>
+        <v>3.69</v>
       </c>
       <c r="I101" t="n">
         <v>1.1</v>
@@ -11628,13 +11628,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.34</v>
+        <v>2.23</v>
       </c>
       <c r="G102" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H102" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="I102" t="n">
         <v>1.06</v>
@@ -11649,10 +11649,10 @@
         <v>3.3</v>
       </c>
       <c r="M102" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N102" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="O102" t="n">
         <v>1.39</v>
@@ -11700,10 +11700,10 @@
         <v>2.3</v>
       </c>
       <c r="AD102" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE102" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF102" t="n">
         <v>1.85</v>
@@ -11712,7 +11712,7 @@
         <v>2.06</v>
       </c>
       <c r="AH102" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="103">
@@ -11738,13 +11738,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G103" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H103" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I103" t="n">
         <v>1.08</v>
@@ -11759,10 +11759,10 @@
         <v>2.8</v>
       </c>
       <c r="M103" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="N103" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="O103" t="n">
         <v>1.47</v>
@@ -11848,13 +11848,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="G104" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H104" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I104" t="n">
         <v>1.03</v>
@@ -11958,13 +11958,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>5</v>
+        <v>4.26</v>
       </c>
       <c r="G105" t="n">
-        <v>3.7</v>
+        <v>3.23</v>
       </c>
       <c r="H105" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="I105" t="n">
         <v>1.06</v>
@@ -11979,10 +11979,10 @@
         <v>3.3</v>
       </c>
       <c r="M105" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N105" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="O105" t="n">
         <v>1.4</v>
@@ -12068,13 +12068,13 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.4</v>
+        <v>2.74</v>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="I106" t="n">
         <v>1.1</v>
@@ -12089,10 +12089,10 @@
         <v>2.7</v>
       </c>
       <c r="M106" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="N106" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="O106" t="n">
         <v>1.5</v>
@@ -12152,7 +12152,7 @@
         <v>4.75</v>
       </c>
       <c r="AH106" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="107">
@@ -12178,13 +12178,13 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="G107" t="n">
-        <v>3.6</v>
+        <v>3.67</v>
       </c>
       <c r="H107" t="n">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="I107" t="n">
         <v>1.03</v>
@@ -12199,10 +12199,10 @@
         <v>4.2</v>
       </c>
       <c r="M107" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="N107" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O107" t="n">
         <v>1.33</v>
@@ -12288,13 +12288,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="G108" t="n">
-        <v>3.6</v>
+        <v>3.23</v>
       </c>
       <c r="H108" t="n">
-        <v>5</v>
+        <v>4.26</v>
       </c>
       <c r="I108" t="n">
         <v>1.05</v>
@@ -12309,10 +12309,10 @@
         <v>4</v>
       </c>
       <c r="M108" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="N108" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O108" t="n">
         <v>1.33</v>
@@ -12398,13 +12398,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="H109" t="n">
-        <v>2.7</v>
+        <v>2.51</v>
       </c>
       <c r="I109" t="n">
         <v>1.09</v>
@@ -12419,10 +12419,10 @@
         <v>2.84</v>
       </c>
       <c r="M109" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="N109" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O109" t="n">
         <v>1.5</v>
@@ -12508,13 +12508,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G110" t="n">
-        <v>3.2</v>
+        <v>3.01</v>
       </c>
       <c r="H110" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="I110" t="n">
         <v>1.08</v>
@@ -12529,10 +12529,10 @@
         <v>2.8</v>
       </c>
       <c r="M110" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="N110" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O110" t="n">
         <v>1.47</v>
@@ -12618,13 +12618,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="G111" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="H111" t="n">
-        <v>4.33</v>
+        <v>3.76</v>
       </c>
       <c r="I111" t="n">
         <v>1.07</v>
@@ -12639,10 +12639,10 @@
         <v>3</v>
       </c>
       <c r="M111" t="n">
-        <v>2.3</v>
+        <v>2.13</v>
       </c>
       <c r="N111" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="O111" t="n">
         <v>1.44</v>
@@ -12728,13 +12728,13 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.7</v>
+        <v>2.49</v>
       </c>
       <c r="G112" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H112" t="n">
-        <v>2.63</v>
+        <v>2.49</v>
       </c>
       <c r="I112" t="n">
         <v>1.06</v>
@@ -12749,10 +12749,10 @@
         <v>3.1</v>
       </c>
       <c r="M112" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N112" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="O112" t="n">
         <v>1.43</v>
@@ -12838,13 +12838,13 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>2.83</v>
       </c>
       <c r="H113" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="I113" t="n">
         <v>1.1</v>
@@ -12862,7 +12862,7 @@
         <v>2.4</v>
       </c>
       <c r="N113" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="O113" t="n">
         <v>1.51</v>
@@ -13058,13 +13058,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="G115" t="n">
-        <v>4.6</v>
+        <v>4.23</v>
       </c>
       <c r="H115" t="n">
-        <v>5.6</v>
+        <v>5.16</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -13079,10 +13079,10 @@
         <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="N115" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
@@ -13388,13 +13388,13 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="G118" t="n">
-        <v>3.5</v>
+        <v>3.16</v>
       </c>
       <c r="H118" t="n">
-        <v>4.2</v>
+        <v>3.76</v>
       </c>
       <c r="I118" t="n">
         <v>1.05</v>
@@ -13409,10 +13409,10 @@
         <v>4</v>
       </c>
       <c r="M118" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="N118" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="O118" t="n">
         <v>1.45</v>
@@ -13498,13 +13498,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="G119" t="n">
-        <v>3.9</v>
+        <v>3.49</v>
       </c>
       <c r="H119" t="n">
-        <v>5.4</v>
+        <v>4.85</v>
       </c>
       <c r="I119" t="n">
         <v>1.02</v>
@@ -13561,28 +13561,28 @@
         <v>2.93</v>
       </c>
       <c r="AA119" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AB119" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC119" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AD119" t="n">
         <v>0</v>
       </c>
       <c r="AE119" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF119" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG119" t="n">
         <v>1.88</v>
       </c>
       <c r="AH119" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="120">
@@ -13608,13 +13608,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="G120" t="n">
-        <v>4.1</v>
+        <v>3.77</v>
       </c>
       <c r="H120" t="n">
-        <v>4.5</v>
+        <v>4.12</v>
       </c>
       <c r="I120" t="n">
         <v>1.02</v>
@@ -13629,10 +13629,10 @@
         <v>6.2</v>
       </c>
       <c r="M120" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="N120" t="n">
-        <v>2.11</v>
+        <v>2.75</v>
       </c>
       <c r="O120" t="n">
         <v>1.22</v>
@@ -13718,13 +13718,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="G121" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H121" t="n">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="I121" t="n">
         <v>1.03</v>
@@ -13739,10 +13739,10 @@
         <v>4.2</v>
       </c>
       <c r="M121" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="N121" t="n">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="O121" t="n">
         <v>1.3</v>
@@ -13828,13 +13828,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2.05</v>
+        <v>2.13</v>
       </c>
       <c r="G122" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H122" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I122" t="n">
         <v>1.04</v>
@@ -13849,10 +13849,10 @@
         <v>3.7</v>
       </c>
       <c r="M122" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="N122" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="O122" t="n">
         <v>1.33</v>
@@ -13938,13 +13938,13 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>2.03</v>
+        <v>2.5</v>
       </c>
       <c r="G123" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H123" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="I123" t="n">
         <v>1.06</v>
@@ -13959,10 +13959,10 @@
         <v>3.5</v>
       </c>
       <c r="M123" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="N123" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="O123" t="n">
         <v>1.38</v>
@@ -14046,13 +14046,13 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -14067,10 +14067,10 @@
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="N124" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O124" t="n">
         <v>0</v>
@@ -14154,13 +14154,13 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -14175,10 +14175,10 @@
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="N125" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O125" t="n">
         <v>0</v>
@@ -14262,13 +14262,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -14283,10 +14283,10 @@
         <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N126" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O126" t="n">
         <v>0</v>
@@ -14372,13 +14372,13 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="G127" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="H127" t="n">
-        <v>3.5</v>
+        <v>3.28</v>
       </c>
       <c r="I127" t="n">
         <v>1.07</v>
@@ -14393,10 +14393,10 @@
         <v>3</v>
       </c>
       <c r="M127" t="n">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="N127" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O127" t="n">
         <v>1.43</v>
@@ -14456,7 +14456,7 @@
         <v>3.15</v>
       </c>
       <c r="AH127" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128">
@@ -14482,13 +14482,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="G128" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="H128" t="n">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="I128" t="n">
         <v>1.1</v>
@@ -14590,13 +14590,13 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -14611,10 +14611,10 @@
         <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N129" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="O129" t="n">
         <v>0</v>
@@ -14810,13 +14810,13 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="G131" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="H131" t="n">
-        <v>3.55</v>
+        <v>3.67</v>
       </c>
       <c r="I131" t="n">
         <v>1.06</v>
@@ -15030,13 +15030,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>3.25</v>
+        <v>3.14</v>
       </c>
       <c r="G133" t="n">
-        <v>3.55</v>
+        <v>3.42</v>
       </c>
       <c r="H133" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="I133" t="n">
         <v>1.02</v>
@@ -15140,13 +15140,13 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="G134" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H134" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I134" t="n">
         <v>1.04</v>
@@ -15161,7 +15161,7 @@
         <v>3.75</v>
       </c>
       <c r="M134" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="N134" t="n">
         <v>1.95</v>
@@ -15250,52 +15250,52 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G135" t="n">
-        <v>2.95</v>
+        <v>3.03</v>
       </c>
       <c r="H135" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="M135" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="N135" t="n">
         <v>1.53</v>
       </c>
       <c r="O135" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P135" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="Q135" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R135" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="S135" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T135" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U135" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V135" t="n">
         <v>1.17</v>
@@ -15313,25 +15313,25 @@
         <v>2.94</v>
       </c>
       <c r="AA135" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AB135" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC135" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD135" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AE135" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AF135" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AG135" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AH135" t="n">
         <v>0</v>
@@ -15360,13 +15360,13 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="G136" t="n">
-        <v>3.4</v>
+        <v>3.17</v>
       </c>
       <c r="H136" t="n">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="I136" t="n">
         <v>1.06</v>
@@ -15381,10 +15381,10 @@
         <v>3.4</v>
       </c>
       <c r="M136" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="N136" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O136" t="n">
         <v>1.44</v>
@@ -15470,13 +15470,13 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="G137" t="n">
-        <v>3.25</v>
+        <v>3.07</v>
       </c>
       <c r="H137" t="n">
-        <v>3.6</v>
+        <v>3.36</v>
       </c>
       <c r="I137" t="n">
         <v>1.07</v>
@@ -15491,10 +15491,10 @@
         <v>2.9</v>
       </c>
       <c r="M137" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="N137" t="n">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="O137" t="n">
         <v>1.44</v>
@@ -15580,13 +15580,13 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="G138" t="n">
-        <v>3.7</v>
+        <v>3.24</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="I138" t="n">
         <v>1.04</v>
@@ -15601,10 +15601,10 @@
         <v>4.1</v>
       </c>
       <c r="M138" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="N138" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="O138" t="n">
         <v>1.35</v>
@@ -15690,52 +15690,52 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M139" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="N139" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="O139" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P139" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q139" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R139" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="S139" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="T139" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U139" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V139" t="n">
         <v>0</v>
@@ -16359,43 +16359,43 @@
         <v>3.28</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M145" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="N145" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="O145" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P145" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q145" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R145" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S145" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T145" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U145" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V145" t="n">
         <v>2.2</v>
@@ -16413,13 +16413,13 @@
         <v>3.19</v>
       </c>
       <c r="AA145" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AB145" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC145" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AD145" t="n">
         <v>0</v>
@@ -16428,7 +16428,7 @@
         <v>0</v>
       </c>
       <c r="AF145" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG145" t="n">
         <v>0</v>
@@ -16460,13 +16460,13 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="G146" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="H146" t="n">
-        <v>5</v>
+        <v>4.64</v>
       </c>
       <c r="I146" t="n">
         <v>1.08</v>
@@ -16570,37 +16570,37 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="G147" t="n">
-        <v>3.25</v>
+        <v>3.18</v>
       </c>
       <c r="H147" t="n">
-        <v>3.5</v>
+        <v>3.37</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M147" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="N147" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="O147" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P147" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q147" t="n">
         <v>1.95</v>
@@ -16609,13 +16609,13 @@
         <v>1.8</v>
       </c>
       <c r="S147" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="T147" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U147" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="V147" t="n">
         <v>3</v>
@@ -16642,19 +16642,19 @@
         <v>3.2</v>
       </c>
       <c r="AD147" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE147" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF147" t="n">
         <v>1.83</v>
       </c>
       <c r="AG147" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AH147" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="148">
@@ -16680,13 +16680,13 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="G148" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H148" t="n">
-        <v>2.8</v>
+        <v>2.71</v>
       </c>
       <c r="I148" t="n">
         <v>1.06</v>
@@ -16790,13 +16790,13 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="G149" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="I149" t="n">
         <v>1.05</v>
@@ -16811,10 +16811,10 @@
         <v>3.6</v>
       </c>
       <c r="M149" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="N149" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="O149" t="n">
         <v>1.36</v>
@@ -16900,13 +16900,13 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="G150" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H150" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="I150" t="n">
         <v>1.02</v>
@@ -16924,7 +16924,7 @@
         <v>1.5</v>
       </c>
       <c r="N150" t="n">
-        <v>2.51</v>
+        <v>2.4</v>
       </c>
       <c r="O150" t="n">
         <v>1.25</v>
@@ -17120,13 +17120,13 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G152" t="n">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="H152" t="n">
-        <v>4</v>
+        <v>3.62</v>
       </c>
       <c r="I152" t="n">
         <v>1.02</v>
@@ -17141,10 +17141,10 @@
         <v>4.33</v>
       </c>
       <c r="M152" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="N152" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O152" t="n">
         <v>1.29</v>
@@ -17230,52 +17230,52 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J153" t="n">
-        <v>0</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L153" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M153" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N153" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O153" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P153" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q153" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="R153" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S153" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="T153" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U153" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V153" t="n">
         <v>0</v>
@@ -17670,13 +17670,13 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -17691,34 +17691,34 @@
         <v>0</v>
       </c>
       <c r="M157" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="N157" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="O157" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P157" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q157" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R157" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S157" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="T157" t="n">
         <v>0</v>
       </c>
       <c r="U157" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V157" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="W157" t="n">
         <v>1</v>
@@ -17890,13 +17890,13 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="G159" t="n">
-        <v>3.9</v>
+        <v>3.49</v>
       </c>
       <c r="H159" t="n">
-        <v>5.4</v>
+        <v>4.85</v>
       </c>
       <c r="I159" t="n">
         <v>1.03</v>
@@ -17911,10 +17911,10 @@
         <v>3.3</v>
       </c>
       <c r="M159" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="N159" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="O159" t="n">
         <v>1.37</v>
@@ -17953,28 +17953,28 @@
         <v>3.3</v>
       </c>
       <c r="AA159" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AB159" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC159" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AD159" t="n">
         <v>0</v>
       </c>
       <c r="AE159" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF159" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG159" t="n">
         <v>1.85</v>
       </c>
       <c r="AH159" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="160">
@@ -18000,13 +18000,13 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="G160" t="n">
-        <v>3.2</v>
+        <v>2.99</v>
       </c>
       <c r="H160" t="n">
-        <v>4.5</v>
+        <v>4.17</v>
       </c>
       <c r="I160" t="n">
         <v>1.09</v>
@@ -18110,13 +18110,13 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="G161" t="n">
-        <v>3.65</v>
+        <v>3.31</v>
       </c>
       <c r="H161" t="n">
-        <v>4.3</v>
+        <v>3.82</v>
       </c>
       <c r="I161" t="n">
         <v>1.01</v>
@@ -18131,10 +18131,10 @@
         <v>3.75</v>
       </c>
       <c r="M161" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="N161" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="O161" t="n">
         <v>1.4</v>
@@ -18220,13 +18220,13 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="G162" t="n">
-        <v>3.5</v>
+        <v>2.98</v>
       </c>
       <c r="H162" t="n">
-        <v>4</v>
+        <v>3.88</v>
       </c>
       <c r="I162" t="n">
         <v>1.05</v>
@@ -18241,10 +18241,10 @@
         <v>3</v>
       </c>
       <c r="M162" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N162" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="O162" t="n">
         <v>1.46</v>
@@ -18283,28 +18283,28 @@
         <v>0</v>
       </c>
       <c r="AA162" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AB162" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC162" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AD162" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE162" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF162" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG162" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH162" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="163">
@@ -18330,13 +18330,13 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="G163" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H163" t="n">
-        <v>5</v>
+        <v>5.22</v>
       </c>
       <c r="I163" t="n">
         <v>1.09</v>
@@ -18550,13 +18550,13 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -18571,10 +18571,10 @@
         <v>0</v>
       </c>
       <c r="M165" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="N165" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="O165" t="n">
         <v>0</v>
@@ -18660,13 +18660,13 @@
         </is>
       </c>
       <c r="F166" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G166" t="n">
         <v>2.65</v>
       </c>
-      <c r="G166" t="n">
-        <v>2.75</v>
-      </c>
       <c r="H166" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I166" t="n">
         <v>1.07</v>
@@ -18770,31 +18770,31 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="G167" t="n">
-        <v>3.9</v>
+        <v>3.71</v>
       </c>
       <c r="H167" t="n">
-        <v>5.5</v>
+        <v>5.13</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J167" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="M167" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N167" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O167" t="n">
         <v>1.36</v>
@@ -19100,13 +19100,13 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G170" t="n">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="H170" t="n">
-        <v>4.2</v>
+        <v>3.68</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -19121,10 +19121,10 @@
         <v>0</v>
       </c>
       <c r="M170" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="N170" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="O170" t="n">
         <v>0</v>
@@ -19210,13 +19210,13 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="G171" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="H171" t="n">
-        <v>3.7</v>
+        <v>3.38</v>
       </c>
       <c r="I171" t="n">
         <v>1.09</v>
@@ -19231,10 +19231,10 @@
         <v>2.8</v>
       </c>
       <c r="M171" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="N171" t="n">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="O171" t="n">
         <v>1.48</v>
@@ -19320,13 +19320,13 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="G172" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="H172" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I172" t="n">
         <v>1.1</v>
@@ -19341,10 +19341,10 @@
         <v>2.6</v>
       </c>
       <c r="M172" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="N172" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="O172" t="n">
         <v>1.51</v>
@@ -19430,13 +19430,13 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="G173" t="n">
-        <v>2.95</v>
+        <v>2.79</v>
       </c>
       <c r="H173" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="I173" t="n">
         <v>1.1</v>
@@ -19451,10 +19451,10 @@
         <v>2.65</v>
       </c>
       <c r="M173" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="N173" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="O173" t="n">
         <v>1.51</v>
@@ -19540,13 +19540,13 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="G174" t="n">
-        <v>3.2</v>
+        <v>3.01</v>
       </c>
       <c r="H174" t="n">
-        <v>2.95</v>
+        <v>2.81</v>
       </c>
       <c r="I174" t="n">
         <v>1.1</v>
@@ -19561,10 +19561,10 @@
         <v>2.65</v>
       </c>
       <c r="M174" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="N174" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="O174" t="n">
         <v>1.51</v>
@@ -19659,43 +19659,43 @@
         <v>4.84</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="M175" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="N175" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="O175" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P175" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q175" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R175" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S175" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T175" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U175" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V175" t="n">
         <v>2</v>
@@ -19713,13 +19713,13 @@
         <v>2.9</v>
       </c>
       <c r="AA175" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB175" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC175" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AD175" t="n">
         <v>0</v>
@@ -19760,52 +19760,52 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J176" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="L176" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="M176" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N176" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O176" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P176" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R176" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="S176" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T176" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U176" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V176" t="n">
         <v>0</v>
@@ -19870,13 +19870,13 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G177" t="n">
-        <v>3.2</v>
+        <v>3.07</v>
       </c>
       <c r="H177" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I177" t="n">
         <v>1.07</v>
@@ -20090,52 +20090,52 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J179" t="n">
-        <v>0</v>
+        <v>8.85</v>
       </c>
       <c r="K179" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="L179" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="M179" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N179" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O179" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P179" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q179" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="R179" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="S179" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T179" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U179" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V179" t="n">
         <v>0</v>
@@ -20200,10 +20200,10 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G180" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="H180" t="n">
         <v>4.1</v>
@@ -20310,13 +20310,13 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="G181" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H181" t="n">
-        <v>2.75</v>
+        <v>2.39</v>
       </c>
       <c r="I181" t="n">
         <v>1.05</v>
@@ -20420,13 +20420,13 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="G182" t="n">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="I182" t="n">
         <v>1.05</v>
@@ -20441,10 +20441,10 @@
         <v>3.5</v>
       </c>
       <c r="M182" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="N182" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="O182" t="n">
         <v>1.36</v>
@@ -20530,13 +20530,13 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>4.1</v>
+        <v>3.74</v>
       </c>
       <c r="G183" t="n">
-        <v>3.5</v>
+        <v>3.19</v>
       </c>
       <c r="H183" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="I183" t="n">
         <v>1.06</v>
@@ -20551,10 +20551,10 @@
         <v>3.3</v>
       </c>
       <c r="M183" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="N183" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="O183" t="n">
         <v>1.4</v>
@@ -20640,58 +20640,58 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J184" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L184" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="M184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N184" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O184" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P184" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q184" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R184" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S184" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T184" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U184" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="W184" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X184" t="n">
         <v>1.27</v>
@@ -20759,16 +20759,16 @@
         <v>4</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J185" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K185" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L185" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M185" t="n">
         <v>1.91</v>
@@ -20970,13 +20970,13 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="G187" t="n">
-        <v>3.3</v>
+        <v>3.06</v>
       </c>
       <c r="H187" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I187" t="n">
         <v>1.06</v>
@@ -20991,10 +20991,10 @@
         <v>2.51</v>
       </c>
       <c r="M187" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N187" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O187" t="n">
         <v>1.53</v>
@@ -21033,16 +21033,16 @@
         <v>3.04</v>
       </c>
       <c r="AA187" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AB187" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC187" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AD187" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE187" t="n">
         <v>1.73</v>
@@ -21051,7 +21051,7 @@
         <v>2.14</v>
       </c>
       <c r="AG187" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH187" t="n">
         <v>0</v>
@@ -21080,16 +21080,16 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>3.75</v>
+        <v>3.43</v>
       </c>
       <c r="G188" t="n">
-        <v>3.3</v>
+        <v>3.14</v>
       </c>
       <c r="H188" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J188" t="n">
         <v>12.5</v>
@@ -21101,28 +21101,28 @@
         <v>3.6</v>
       </c>
       <c r="M188" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="N188" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="O188" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P188" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q188" t="n">
         <v>1.7</v>
       </c>
       <c r="R188" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S188" t="n">
         <v>1.8</v>
       </c>
       <c r="T188" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U188" t="n">
         <v>1.25</v>
@@ -21190,13 +21190,13 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="G189" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H189" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="I189" t="n">
         <v>1.1</v>
@@ -21211,7 +21211,7 @@
         <v>2.7</v>
       </c>
       <c r="M189" t="n">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="N189" t="n">
         <v>1.55</v>
@@ -21300,13 +21300,13 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="G190" t="n">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
       <c r="H190" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="I190" t="n">
         <v>1.05</v>
@@ -21321,10 +21321,10 @@
         <v>3.75</v>
       </c>
       <c r="M190" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="N190" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="O190" t="n">
         <v>1.35</v>
@@ -21410,13 +21410,13 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="G191" t="n">
-        <v>3.4</v>
+        <v>3.17</v>
       </c>
       <c r="H191" t="n">
-        <v>3.3</v>
+        <v>3.02</v>
       </c>
       <c r="I191" t="n">
         <v>1.05</v>
@@ -21431,10 +21431,10 @@
         <v>3.5</v>
       </c>
       <c r="M191" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="N191" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="O191" t="n">
         <v>1.36</v>
@@ -21520,13 +21520,13 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="G192" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="H192" t="n">
-        <v>4</v>
+        <v>3.41</v>
       </c>
       <c r="I192" t="n">
         <v>1.04</v>
@@ -21541,10 +21541,10 @@
         <v>3.75</v>
       </c>
       <c r="M192" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="N192" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O192" t="n">
         <v>1.33</v>
@@ -21630,13 +21630,13 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="G193" t="n">
-        <v>3.3</v>
+        <v>3.21</v>
       </c>
       <c r="H193" t="n">
-        <v>3.4</v>
+        <v>3.03</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -21651,10 +21651,10 @@
         <v>0</v>
       </c>
       <c r="M193" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="N193" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="O193" t="n">
         <v>0</v>
@@ -21740,13 +21740,13 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="G194" t="n">
-        <v>3.4</v>
+        <v>3.21</v>
       </c>
       <c r="H194" t="n">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -21761,10 +21761,10 @@
         <v>3.72</v>
       </c>
       <c r="M194" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="N194" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="O194" t="n">
         <v>1.36</v>
@@ -21850,13 +21850,13 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="G195" t="n">
-        <v>3.4</v>
+        <v>3.21</v>
       </c>
       <c r="H195" t="n">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -21871,10 +21871,10 @@
         <v>3.82</v>
       </c>
       <c r="M195" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="N195" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O195" t="n">
         <v>1.35</v>
@@ -21960,13 +21960,13 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="G196" t="n">
-        <v>3.4</v>
+        <v>3.17</v>
       </c>
       <c r="H196" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I196" t="n">
         <v>1.07</v>
@@ -21981,10 +21981,10 @@
         <v>3.18</v>
       </c>
       <c r="M196" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="N196" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="O196" t="n">
         <v>1.45</v>
@@ -22070,13 +22070,13 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="G197" t="n">
-        <v>3.5</v>
+        <v>3.27</v>
       </c>
       <c r="H197" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="I197" t="n">
         <v>1.05</v>
@@ -22091,10 +22091,10 @@
         <v>3.83</v>
       </c>
       <c r="M197" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="N197" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="O197" t="n">
         <v>1.38</v>
@@ -22180,13 +22180,13 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="G198" t="n">
-        <v>3.95</v>
+        <v>3.46</v>
       </c>
       <c r="H198" t="n">
-        <v>4.5</v>
+        <v>3.79</v>
       </c>
       <c r="I198" t="n">
         <v>1.04</v>
@@ -22201,10 +22201,10 @@
         <v>3.82</v>
       </c>
       <c r="M198" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="N198" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O198" t="n">
         <v>1.33</v>
@@ -22290,13 +22290,13 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="G199" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H199" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I199" t="n">
         <v>1.02</v>
@@ -22311,10 +22311,10 @@
         <v>3.32</v>
       </c>
       <c r="M199" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="N199" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="O199" t="n">
         <v>1.41</v>
@@ -22510,13 +22510,13 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="G201" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H201" t="n">
-        <v>3.2</v>
+        <v>3.03</v>
       </c>
       <c r="I201" t="n">
         <v>1.04</v>
@@ -22531,10 +22531,10 @@
         <v>4</v>
       </c>
       <c r="M201" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="N201" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="O201" t="n">
         <v>1.35</v>
@@ -22620,52 +22620,52 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>4.01</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>4.51</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J202" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="L202" t="n">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="M202" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="N202" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="O202" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P202" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q202" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="R202" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S202" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T202" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U202" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="V202" t="n">
         <v>0.8</v>
@@ -22683,13 +22683,13 @@
         <v>2.84</v>
       </c>
       <c r="AA202" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB202" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC202" t="n">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AD202" t="n">
         <v>0</v>
@@ -22698,7 +22698,7 @@
         <v>0</v>
       </c>
       <c r="AF202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG202" t="n">
         <v>0</v>
@@ -22730,13 +22730,13 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="G203" t="n">
-        <v>3.85</v>
+        <v>3.46</v>
       </c>
       <c r="H203" t="n">
-        <v>4.8</v>
+        <v>4.26</v>
       </c>
       <c r="I203" t="n">
         <v>1.03</v>
@@ -22751,10 +22751,10 @@
         <v>3.85</v>
       </c>
       <c r="M203" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="N203" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O203" t="n">
         <v>1.32</v>
@@ -22814,7 +22814,7 @@
         <v>0</v>
       </c>
       <c r="AH203" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="204">
@@ -22840,13 +22840,13 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="G204" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="H204" t="n">
-        <v>4.6</v>
+        <v>4.23</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -22861,10 +22861,10 @@
         <v>0</v>
       </c>
       <c r="M204" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N204" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="O204" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2023-05-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -638,7 +638,7 @@
         <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="N2" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -680,10 +680,10 @@
         <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="W2" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X2" t="n">
         <v>0.75</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
         <v>1.06</v>
@@ -763,10 +763,10 @@
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N3" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.45</v>
@@ -793,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="X3" t="n">
         <v>1.4</v>
@@ -826,7 +826,7 @@
         <v>3.8</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="4">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
       <c r="H4" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="I4" t="n">
         <v>1.11</v>
@@ -873,10 +873,10 @@
         <v>2.4</v>
       </c>
       <c r="M4" t="n">
-        <v>2.68</v>
+        <v>2.75</v>
       </c>
       <c r="N4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.62</v>
@@ -900,10 +900,10 @@
         <v>1.38</v>
       </c>
       <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.14</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.83</v>
       </c>
       <c r="X4" t="n">
         <v>1.38</v>
@@ -936,7 +936,7 @@
         <v>2.93</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="5">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>2.98</v>
       </c>
       <c r="I5" t="n">
         <v>1.08</v>
@@ -983,7 +983,7 @@
         <v>2.6</v>
       </c>
       <c r="M5" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N5" t="n">
         <v>1.53</v>
@@ -1010,7 +1010,7 @@
         <v>1.53</v>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>3</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="N6" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1120,10 +1120,10 @@
         <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="W6" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="X6" t="n">
         <v>1.29</v>
@@ -1230,10 +1230,10 @@
         <v>1.72</v>
       </c>
       <c r="V7" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="W7" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="X7" t="n">
         <v>1.42</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.03</v>
+        <v>2.8</v>
       </c>
       <c r="G8" t="n">
-        <v>3.03</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.72</v>
+        <v>2.35</v>
       </c>
       <c r="I8" t="n">
         <v>1.04</v>
@@ -1313,10 +1313,10 @@
         <v>3.47</v>
       </c>
       <c r="M8" t="n">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="N8" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1340,7 +1340,7 @@
         <v>1.68</v>
       </c>
       <c r="V8" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W8" t="n">
         <v>1</v>
@@ -1376,7 +1376,7 @@
         <v>2.53</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="9">
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="G9" t="n">
-        <v>3.12</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="I9" t="n">
         <v>1.05</v>
@@ -1423,10 +1423,10 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="N9" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N10" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -1560,10 +1560,10 @@
         <v>1.22</v>
       </c>
       <c r="V10" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W10" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="X10" t="n">
         <v>1.52</v>
@@ -1670,10 +1670,10 @@
         <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="X11" t="n">
         <v>1.59</v>
@@ -1780,10 +1780,10 @@
         <v>1.4</v>
       </c>
       <c r="V12" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="X12" t="n">
         <v>1.82</v>
@@ -1863,10 +1863,10 @@
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="N13" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
@@ -1890,10 +1890,10 @@
         <v>1.5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X13" t="n">
         <v>1.33</v>
@@ -1973,10 +1973,10 @@
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="N14" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2000,7 +2000,7 @@
         <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -2015,28 +2015,28 @@
         <v>2.54</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE14" t="n">
         <v>1.8</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="15">
@@ -2110,10 +2110,10 @@
         <v>1.57</v>
       </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="W15" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
         <v>1.41</v>
@@ -2193,10 +2193,10 @@
         <v>3.5</v>
       </c>
       <c r="M16" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="N16" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O16" t="n">
         <v>1.37</v>
@@ -2220,10 +2220,10 @@
         <v>1.21</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="X16" t="n">
         <v>1.32</v>
@@ -2297,16 +2297,16 @@
         <v>6.5</v>
       </c>
       <c r="K17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="L17" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="M17" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N17" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O17" t="n">
         <v>1.51</v>
@@ -2330,10 +2330,10 @@
         <v>1.4</v>
       </c>
       <c r="V17" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W17" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="X17" t="n">
         <v>1.52</v>
@@ -2401,22 +2401,22 @@
         <v>2.92</v>
       </c>
       <c r="I18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K18" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="L18" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="M18" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="N18" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
@@ -2431,19 +2431,19 @@
         <v>2.25</v>
       </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T18" t="n">
         <v>1.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="V18" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="W18" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="X18" t="n">
         <v>1.59</v>
@@ -2458,13 +2458,13 @@
         <v>2.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AE18" t="n">
         <v>1.26</v>
@@ -2523,10 +2523,10 @@
         <v>2.75</v>
       </c>
       <c r="M19" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="N19" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="O19" t="n">
         <v>1.45</v>
@@ -2550,10 +2550,10 @@
         <v>1.68</v>
       </c>
       <c r="V19" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X19" t="n">
         <v>1.85</v>
@@ -2636,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
@@ -2660,10 +2660,10 @@
         <v>1.67</v>
       </c>
       <c r="V20" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W20" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X20" t="n">
         <v>1.95</v>
@@ -2770,10 +2770,10 @@
         <v>2.18</v>
       </c>
       <c r="V21" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="X21" t="n">
         <v>1.52</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="G22" t="n">
-        <v>4.6</v>
+        <v>3.32</v>
       </c>
       <c r="H22" t="n">
-        <v>5.35</v>
+        <v>3.59</v>
       </c>
       <c r="I22" t="n">
         <v>1.02</v>
@@ -2853,10 +2853,10 @@
         <v>4.75</v>
       </c>
       <c r="M22" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="N22" t="n">
         <v>1.84</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2</v>
       </c>
       <c r="O22" t="n">
         <v>1.25</v>
@@ -2895,13 +2895,13 @@
         <v>2.98</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.75</v>
+        <v>7.25</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="AD22" t="n">
         <v>1.21</v>
@@ -2910,7 +2910,7 @@
         <v>1.42</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="AG22" t="n">
         <v>2.13</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.03</v>
+        <v>2.51</v>
       </c>
       <c r="G23" t="n">
-        <v>3.6</v>
+        <v>3.22</v>
       </c>
       <c r="H23" t="n">
-        <v>2.24</v>
+        <v>2.37</v>
       </c>
       <c r="I23" t="n">
         <v>1.03</v>
@@ -2963,10 +2963,10 @@
         <v>3.98</v>
       </c>
       <c r="M23" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="N23" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="O23" t="n">
         <v>1.32</v>
@@ -3011,16 +3011,16 @@
         <v>6</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE23" t="n">
         <v>1.33</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AG23" t="n">
         <v>2.01</v>
@@ -3073,10 +3073,10 @@
         <v>3.42</v>
       </c>
       <c r="M24" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="N24" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="O24" t="n">
         <v>1.41</v>
@@ -3100,10 +3100,10 @@
         <v>1.65</v>
       </c>
       <c r="V24" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="W24" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X24" t="n">
         <v>1.5</v>
@@ -3183,10 +3183,10 @@
         <v>4.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="N25" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="O25" t="n">
         <v>1.27</v>
@@ -3210,10 +3210,10 @@
         <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="W25" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
         <v>1.94</v>
@@ -3293,10 +3293,10 @@
         <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="N26" t="n">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="O26" t="n">
         <v>1.27</v>
@@ -3320,10 +3320,10 @@
         <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W26" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="X26" t="n">
         <v>1.86</v>
@@ -3513,10 +3513,10 @@
         <v>3.2</v>
       </c>
       <c r="M28" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O28" t="n">
         <v>1.41</v>
@@ -3623,10 +3623,10 @@
         <v>2.75</v>
       </c>
       <c r="M29" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="N29" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O29" t="n">
         <v>1.5</v>
@@ -3843,10 +3843,10 @@
         <v>2.4</v>
       </c>
       <c r="M31" t="n">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="N31" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="O31" t="n">
         <v>1.46</v>
@@ -3953,7 +3953,7 @@
         <v>2.87</v>
       </c>
       <c r="M32" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="N32" t="n">
         <v>1.53</v>
@@ -4063,10 +4063,10 @@
         <v>2.9</v>
       </c>
       <c r="M33" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="N33" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="O33" t="n">
         <v>1.47</v>
@@ -4173,10 +4173,10 @@
         <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="N34" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="O34" t="n">
         <v>1.44</v>
@@ -4283,10 +4283,10 @@
         <v>2.9</v>
       </c>
       <c r="M35" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="N35" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O35" t="n">
         <v>1.49</v>
@@ -4393,10 +4393,10 @@
         <v>2.4</v>
       </c>
       <c r="M36" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O36" t="n">
         <v>1.54</v>
@@ -4503,7 +4503,7 @@
         <v>2.8</v>
       </c>
       <c r="M37" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="N37" t="n">
         <v>1.53</v>
@@ -5053,10 +5053,10 @@
         <v>3.3</v>
       </c>
       <c r="M42" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="N42" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="O42" t="n">
         <v>1.39</v>
@@ -5163,10 +5163,10 @@
         <v>4.05</v>
       </c>
       <c r="M43" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="N43" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="O43" t="n">
         <v>1.35</v>
@@ -5273,10 +5273,10 @@
         <v>4.25</v>
       </c>
       <c r="M44" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="N44" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="O44" t="n">
         <v>1.27</v>
@@ -5383,10 +5383,10 @@
         <v>4.35</v>
       </c>
       <c r="M45" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="N45" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O45" t="n">
         <v>1.32</v>
@@ -5580,52 +5580,52 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="G47" t="n">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="H47" t="n">
-        <v>4.17</v>
+        <v>4.5</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="M47" t="n">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="N47" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="V47" t="n">
         <v>1.75</v>
@@ -5800,13 +5800,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.75</v>
+        <v>2.02</v>
       </c>
       <c r="G49" t="n">
-        <v>3.1</v>
+        <v>2.99</v>
       </c>
       <c r="H49" t="n">
-        <v>2.6</v>
+        <v>3.32</v>
       </c>
       <c r="I49" t="n">
         <v>1.1</v>
@@ -5821,10 +5821,10 @@
         <v>2.55</v>
       </c>
       <c r="M49" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N49" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="O49" t="n">
         <v>1.52</v>
@@ -5931,10 +5931,10 @@
         <v>2.8</v>
       </c>
       <c r="M50" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="N50" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="O50" t="n">
         <v>1.52</v>
@@ -6371,10 +6371,10 @@
         <v>3.6</v>
       </c>
       <c r="M54" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="N54" t="n">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="O54" t="n">
         <v>1.4</v>
@@ -6481,10 +6481,10 @@
         <v>4.33</v>
       </c>
       <c r="M55" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="N55" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="O55" t="n">
         <v>1.3</v>
@@ -6591,10 +6591,10 @@
         <v>4.33</v>
       </c>
       <c r="M56" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="N56" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O56" t="n">
         <v>1.29</v>
@@ -6701,10 +6701,10 @@
         <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="N57" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="O57" t="n">
         <v>1.44</v>
@@ -6811,10 +6811,10 @@
         <v>3.4</v>
       </c>
       <c r="M58" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="N58" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="O58" t="n">
         <v>1.4</v>
@@ -6921,10 +6921,10 @@
         <v>2.85</v>
       </c>
       <c r="M59" t="n">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="N59" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="O59" t="n">
         <v>1.45</v>
@@ -7031,10 +7031,10 @@
         <v>2.85</v>
       </c>
       <c r="M60" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="N60" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="O60" t="n">
         <v>1.45</v>
@@ -7141,10 +7141,10 @@
         <v>3.2</v>
       </c>
       <c r="M61" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="N61" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O61" t="n">
         <v>1.41</v>
@@ -7230,13 +7230,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -7251,10 +7251,10 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -7361,10 +7361,10 @@
         <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="N63" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="O63" t="n">
         <v>1.44</v>
@@ -7801,10 +7801,10 @@
         <v>3.1</v>
       </c>
       <c r="M67" t="n">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="N67" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="O67" t="n">
         <v>1.44</v>
@@ -7911,7 +7911,7 @@
         <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N68" t="n">
         <v>1.6</v>
@@ -8021,10 +8021,10 @@
         <v>3.55</v>
       </c>
       <c r="M69" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="N69" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="O69" t="n">
         <v>1.4</v>
@@ -8110,13 +8110,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="G70" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="H70" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="I70" t="n">
         <v>1.05</v>
@@ -8131,10 +8131,10 @@
         <v>2.7</v>
       </c>
       <c r="M70" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="N70" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="O70" t="n">
         <v>1.5</v>
@@ -8241,10 +8241,10 @@
         <v>3</v>
       </c>
       <c r="M71" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="N71" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O71" t="n">
         <v>1.46</v>
@@ -8351,10 +8351,10 @@
         <v>2.65</v>
       </c>
       <c r="M72" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="N72" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O72" t="n">
         <v>1.51</v>
@@ -8681,10 +8681,10 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="N75" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -8990,52 +8990,52 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>9.15</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U78" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V78" t="n">
         <v>1.25</v>
@@ -9053,28 +9053,28 @@
         <v>2.59</v>
       </c>
       <c r="AA78" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB78" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC78" t="n">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="AD78" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AE78" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AF78" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AG78" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AH78" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="79">
@@ -9121,10 +9121,10 @@
         <v>3.2</v>
       </c>
       <c r="M79" t="n">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="N79" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O79" t="n">
         <v>1.44</v>
@@ -9210,13 +9210,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G80" t="n">
-        <v>3.55</v>
+        <v>3.33</v>
       </c>
       <c r="H80" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="I80" t="n">
         <v>1.06</v>
@@ -9231,10 +9231,10 @@
         <v>3.5</v>
       </c>
       <c r="M80" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="N80" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="O80" t="n">
         <v>1.35</v>
@@ -9318,52 +9318,52 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>9.85</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U81" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V81" t="n">
         <v>3</v>
@@ -9396,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="AF81" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG81" t="n">
         <v>0</v>
@@ -9559,10 +9559,10 @@
         <v>2.93</v>
       </c>
       <c r="M83" t="n">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="N83" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O83" t="n">
         <v>1.48</v>
@@ -9669,10 +9669,10 @@
         <v>4.47</v>
       </c>
       <c r="M84" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="N84" t="n">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="O84" t="n">
         <v>1.32</v>
@@ -9779,10 +9779,10 @@
         <v>3.75</v>
       </c>
       <c r="M85" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="N85" t="n">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="O85" t="n">
         <v>1.33</v>
@@ -9889,7 +9889,7 @@
         <v>4.33</v>
       </c>
       <c r="M86" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="N86" t="n">
         <v>2.15</v>
@@ -9999,10 +9999,10 @@
         <v>3</v>
       </c>
       <c r="M87" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N87" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="O87" t="n">
         <v>1.45</v>
@@ -10380,7 +10380,7 @@
         <v>2.76</v>
       </c>
       <c r="AD90" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE90" t="n">
         <v>1.25</v>
@@ -10439,10 +10439,10 @@
         <v>3.75</v>
       </c>
       <c r="M91" t="n">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="N91" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="O91" t="n">
         <v>1.35</v>
@@ -10543,16 +10543,16 @@
         <v>6.5</v>
       </c>
       <c r="K92" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="L92" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M92" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="N92" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="O92" t="n">
         <v>1.58</v>
@@ -10653,16 +10653,16 @@
         <v>6.5</v>
       </c>
       <c r="K93" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="L93" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="M93" t="n">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="N93" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="O93" t="n">
         <v>1.59</v>
@@ -10769,10 +10769,10 @@
         <v>7.5</v>
       </c>
       <c r="M94" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="N94" t="n">
-        <v>2.86</v>
+        <v>3.3</v>
       </c>
       <c r="O94" t="n">
         <v>1.18</v>
@@ -10879,10 +10879,10 @@
         <v>5.7</v>
       </c>
       <c r="M95" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="N95" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="O95" t="n">
         <v>1.25</v>
@@ -10968,13 +10968,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>5</v>
+        <v>4.96</v>
       </c>
       <c r="G96" t="n">
-        <v>4.2</v>
+        <v>4.13</v>
       </c>
       <c r="H96" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="I96" t="n">
         <v>1.02</v>
@@ -10989,10 +10989,10 @@
         <v>4.45</v>
       </c>
       <c r="M96" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="N96" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="O96" t="n">
         <v>1.3</v>
@@ -11078,13 +11078,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G97" t="n">
-        <v>3.26</v>
+        <v>2.9</v>
       </c>
       <c r="H97" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I97" t="n">
         <v>1.09</v>
@@ -11099,10 +11099,10 @@
         <v>2.45</v>
       </c>
       <c r="M97" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N97" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O97" t="n">
         <v>1.55</v>
@@ -11203,16 +11203,16 @@
         <v>4.5</v>
       </c>
       <c r="K98" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="L98" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="M98" t="n">
-        <v>2.75</v>
+        <v>2.37</v>
       </c>
       <c r="N98" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="O98" t="n">
         <v>1.68</v>
@@ -11319,10 +11319,10 @@
         <v>2.79</v>
       </c>
       <c r="M99" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="N99" t="n">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="O99" t="n">
         <v>1.46</v>
@@ -11429,10 +11429,10 @@
         <v>3</v>
       </c>
       <c r="M100" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="N100" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="O100" t="n">
         <v>1.46</v>
@@ -11533,16 +11533,16 @@
         <v>5.5</v>
       </c>
       <c r="K101" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="L101" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="M101" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="N101" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O101" t="n">
         <v>1.65</v>
@@ -11649,10 +11649,10 @@
         <v>3.3</v>
       </c>
       <c r="M102" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N102" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="O102" t="n">
         <v>1.39</v>
@@ -11759,10 +11759,10 @@
         <v>2.8</v>
       </c>
       <c r="M103" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="N103" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O103" t="n">
         <v>1.47</v>
@@ -11848,7 +11848,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -11869,10 +11869,10 @@
         <v>3.04</v>
       </c>
       <c r="M104" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="N104" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O104" t="n">
         <v>1.4</v>
@@ -11979,10 +11979,10 @@
         <v>3.3</v>
       </c>
       <c r="M105" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="N105" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="O105" t="n">
         <v>1.4</v>
@@ -12089,10 +12089,10 @@
         <v>2.7</v>
       </c>
       <c r="M106" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="N106" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O106" t="n">
         <v>1.5</v>
@@ -12199,10 +12199,10 @@
         <v>4.2</v>
       </c>
       <c r="M107" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="N107" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="O107" t="n">
         <v>1.33</v>
@@ -12419,10 +12419,10 @@
         <v>2.84</v>
       </c>
       <c r="M109" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="N109" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O109" t="n">
         <v>1.5</v>
@@ -12529,10 +12529,10 @@
         <v>2.8</v>
       </c>
       <c r="M110" t="n">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="N110" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O110" t="n">
         <v>1.47</v>
@@ -12639,10 +12639,10 @@
         <v>3</v>
       </c>
       <c r="M111" t="n">
-        <v>2.13</v>
+        <v>2.3</v>
       </c>
       <c r="N111" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="O111" t="n">
         <v>1.44</v>
@@ -12749,10 +12749,10 @@
         <v>3.1</v>
       </c>
       <c r="M112" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N112" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="O112" t="n">
         <v>1.43</v>
@@ -12862,7 +12862,7 @@
         <v>2.4</v>
       </c>
       <c r="N113" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="O113" t="n">
         <v>1.51</v>
@@ -12948,52 +12948,52 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>3.43</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O114" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P114" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="Q114" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R114" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S114" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="T114" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U114" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="V114" t="n">
         <v>1.31</v>
@@ -13011,28 +13011,28 @@
         <v>2.77</v>
       </c>
       <c r="AA114" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AB114" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC114" t="n">
-        <v>0</v>
+        <v>4.26</v>
       </c>
       <c r="AD114" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AE114" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AF114" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AG114" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AH114" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="115">
@@ -13240,19 +13240,19 @@
         <v>0</v>
       </c>
       <c r="AD116" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE116" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG116" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH116" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="117">
@@ -13278,52 +13278,52 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="N117" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="O117" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P117" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="Q117" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R117" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S117" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T117" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U117" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V117" t="n">
         <v>0</v>
@@ -13409,10 +13409,10 @@
         <v>4</v>
       </c>
       <c r="M118" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="N118" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="O118" t="n">
         <v>1.45</v>
@@ -13451,13 +13451,13 @@
         <v>2.2</v>
       </c>
       <c r="AA118" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AB118" t="n">
         <v>0</v>
       </c>
       <c r="AC118" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AD118" t="n">
         <v>1.29</v>
@@ -13519,10 +13519,10 @@
         <v>4.33</v>
       </c>
       <c r="M119" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="N119" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="O119" t="n">
         <v>1.3</v>
@@ -13629,10 +13629,10 @@
         <v>6.2</v>
       </c>
       <c r="M120" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="N120" t="n">
-        <v>2.75</v>
+        <v>2.11</v>
       </c>
       <c r="O120" t="n">
         <v>1.22</v>
@@ -13721,10 +13721,10 @@
         <v>3.15</v>
       </c>
       <c r="G121" t="n">
-        <v>3.7</v>
+        <v>3.69</v>
       </c>
       <c r="H121" t="n">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="I121" t="n">
         <v>1.03</v>
@@ -13739,10 +13739,10 @@
         <v>4.2</v>
       </c>
       <c r="M121" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="N121" t="n">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="O121" t="n">
         <v>1.3</v>
@@ -13828,13 +13828,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2.13</v>
+        <v>2.57</v>
       </c>
       <c r="G122" t="n">
-        <v>3.6</v>
+        <v>3.44</v>
       </c>
       <c r="H122" t="n">
-        <v>3.35</v>
+        <v>2.38</v>
       </c>
       <c r="I122" t="n">
         <v>1.04</v>
@@ -13849,10 +13849,10 @@
         <v>3.7</v>
       </c>
       <c r="M122" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="N122" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="O122" t="n">
         <v>1.33</v>
@@ -13938,13 +13938,13 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>2.5</v>
+        <v>1.98</v>
       </c>
       <c r="G123" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H123" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="I123" t="n">
         <v>1.06</v>
@@ -13959,10 +13959,10 @@
         <v>3.5</v>
       </c>
       <c r="M123" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="N123" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="O123" t="n">
         <v>1.38</v>
@@ -14067,10 +14067,10 @@
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="N124" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="O124" t="n">
         <v>0</v>
@@ -14145,76 +14145,76 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Atenas</t>
+          <t>Albion</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Cerrito</t>
+          <t>Rentistas</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2.07</v>
+        <v>2.42</v>
       </c>
       <c r="G125" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H125" t="n">
-        <v>3.23</v>
+        <v>2.59</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="M125" t="n">
-        <v>2.42</v>
+        <v>2.15</v>
       </c>
       <c r="N125" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="O125" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P125" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q125" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R125" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="S125" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T125" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U125" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="V125" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W125" t="n">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="X125" t="n">
-        <v>1.05</v>
+        <v>1.39</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="Z125" t="n">
-        <v>1.99</v>
+        <v>2.7</v>
       </c>
       <c r="AA125" t="n">
         <v>0</v>
@@ -14253,76 +14253,76 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Uruguay Montevideo FC</t>
+          <t>Atenas</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Miramar Misiones</t>
+          <t>Cerrito</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2.54</v>
+        <v>2.07</v>
       </c>
       <c r="G126" t="n">
-        <v>2.89</v>
+        <v>2.8</v>
       </c>
       <c r="H126" t="n">
-        <v>2.46</v>
+        <v>3.23</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="M126" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="N126" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O126" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P126" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Q126" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R126" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S126" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="T126" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U126" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="V126" t="n">
         <v>0</v>
       </c>
       <c r="W126" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="X126" t="n">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="Y126" t="n">
-        <v>1.28</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z126" t="n">
-        <v>2.83</v>
+        <v>1.99</v>
       </c>
       <c r="AA126" t="n">
         <v>0</v>
@@ -14393,10 +14393,10 @@
         <v>3</v>
       </c>
       <c r="M127" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="N127" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O127" t="n">
         <v>1.43</v>
@@ -14462,108 +14462,108 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Brazil Serie D</t>
         </is>
       </c>
       <c r="B128" s="2" t="n">
         <v>45052.64583333334</v>
       </c>
       <c r="C128" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Agropecuario</t>
+          <t>Independiente FSJ</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>San Martín San Juan</t>
+          <t>Caxias</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2.2</v>
+        <v>3.44</v>
       </c>
       <c r="G128" t="n">
-        <v>2.67</v>
+        <v>3.22</v>
       </c>
       <c r="H128" t="n">
-        <v>3.22</v>
+        <v>2.09</v>
       </c>
       <c r="I128" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="J128" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="K128" t="n">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="L128" t="n">
-        <v>2.32</v>
+        <v>2.75</v>
       </c>
       <c r="M128" t="n">
-        <v>2.9</v>
+        <v>2.21</v>
       </c>
       <c r="N128" t="n">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="O128" t="n">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="P128" t="n">
-        <v>2.18</v>
+        <v>2.53</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="R128" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="S128" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="T128" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="U128" t="n">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="V128" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="W128" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="X128" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="Y128" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="Z128" t="n">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="AA128" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AB128" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AC128" t="n">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="AD128" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AE128" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AF128" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="AG128" t="n">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AH128" t="n">
         <v>0</v>
@@ -14581,22 +14581,22 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Albion</t>
+          <t>Uruguay Montevideo FC</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Rentistas</t>
+          <t>Miramar Misiones</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="G129" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="H129" t="n">
-        <v>2.59</v>
+        <v>2.46</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="N129" t="n">
         <v>1.64</v>
@@ -14638,19 +14638,19 @@
         <v>0</v>
       </c>
       <c r="V129" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="W129" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="X129" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="Y129" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="Z129" t="n">
-        <v>2.7</v>
+        <v>2.83</v>
       </c>
       <c r="AA129" t="n">
         <v>0</v>
@@ -14691,61 +14691,61 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Independiente FSJ</t>
+          <t>Ceilândia</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Caxias</t>
+          <t>Iporá</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P130" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="Q130" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R130" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S130" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="T130" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U130" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V130" t="n">
         <v>0</v>
@@ -14778,7 +14778,7 @@
         <v>0</v>
       </c>
       <c r="AF130" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG130" t="n">
         <v>0</v>
@@ -14797,44 +14797,44 @@
         <v>45052.64583333334</v>
       </c>
       <c r="C131" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Tristán Suárez</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Ferro Carril Oeste</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2.21</v>
+        <v>2</v>
       </c>
       <c r="G131" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="H131" t="n">
-        <v>3.67</v>
+        <v>3.6</v>
       </c>
       <c r="I131" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="J131" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K131" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="L131" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M131" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="N131" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O131" t="n">
         <v>1.52</v>
@@ -14843,658 +14843,658 @@
         <v>2.35</v>
       </c>
       <c r="Q131" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R131" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="S131" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T131" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="U131" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V131" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W131" t="n">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="X131" t="n">
-        <v>2.07</v>
+        <v>1.89</v>
       </c>
       <c r="Y131" t="n">
-        <v>1.28</v>
+        <v>1.05</v>
       </c>
       <c r="Z131" t="n">
-        <v>3.35</v>
+        <v>2.94</v>
       </c>
       <c r="AA131" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AB131" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC131" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="AD131" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="AE131" t="n">
-        <v>1.5</v>
+        <v>1.84</v>
       </c>
       <c r="AF131" t="n">
-        <v>1.83</v>
+        <v>2.39</v>
       </c>
       <c r="AG131" t="n">
-        <v>2.27</v>
+        <v>3.28</v>
       </c>
       <c r="AH131" t="n">
-        <v>3.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B132" s="2" t="n">
         <v>45052.64583333334</v>
       </c>
       <c r="C132" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Lanús</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Huracán</t>
+          <t>Ferro Carril Oeste</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="G132" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H132" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I132" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="J132" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K132" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="L132" t="n">
         <v>2.75</v>
       </c>
       <c r="M132" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O132" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P132" t="n">
         <v>2.35</v>
-      </c>
-      <c r="N132" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O132" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P132" t="n">
-        <v>2.45</v>
       </c>
       <c r="Q132" t="n">
         <v>2</v>
       </c>
       <c r="R132" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="S132" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U132" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V132" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W132" t="n">
         <v>1.33</v>
       </c>
-      <c r="T132" t="n">
+      <c r="X132" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="Y132" t="n">
         <v>1.28</v>
       </c>
-      <c r="U132" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V132" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="W132" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="X132" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y132" t="n">
-        <v>1.19</v>
-      </c>
       <c r="Z132" t="n">
-        <v>2.42</v>
+        <v>3.35</v>
       </c>
       <c r="AA132" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="AB132" t="n">
-        <v>7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC132" t="n">
-        <v>2.2</v>
+        <v>2.57</v>
       </c>
       <c r="AD132" t="n">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="AE132" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AF132" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="AG132" t="n">
-        <v>2.95</v>
+        <v>2.27</v>
       </c>
       <c r="AH132" t="n">
-        <v>4.1</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B133" s="2" t="n">
         <v>45052.64583333334</v>
       </c>
       <c r="C133" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Lanús</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Huracán</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>3.14</v>
+        <v>2.25</v>
       </c>
       <c r="G133" t="n">
-        <v>3.42</v>
+        <v>3.2</v>
       </c>
       <c r="H133" t="n">
-        <v>1.93</v>
+        <v>3.3</v>
       </c>
       <c r="I133" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="J133" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K133" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="L133" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="M133" t="n">
-        <v>1.55</v>
+        <v>2.35</v>
       </c>
       <c r="N133" t="n">
-        <v>2.29</v>
+        <v>1.57</v>
       </c>
       <c r="O133" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="P133" t="n">
-        <v>3.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="R133" t="n">
-        <v>2.7</v>
+        <v>1.78</v>
       </c>
       <c r="S133" t="n">
-        <v>1.85</v>
+        <v>1.33</v>
       </c>
       <c r="T133" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="U133" t="n">
-        <v>1.3</v>
+        <v>1.66</v>
       </c>
       <c r="V133" t="n">
-        <v>1.6</v>
+        <v>2.17</v>
       </c>
       <c r="W133" t="n">
-        <v>1.47</v>
+        <v>0.71</v>
       </c>
       <c r="X133" t="n">
-        <v>2.13</v>
+        <v>1.23</v>
       </c>
       <c r="Y133" t="n">
-        <v>1.88</v>
+        <v>1.19</v>
       </c>
       <c r="Z133" t="n">
-        <v>4.01</v>
+        <v>2.42</v>
       </c>
       <c r="AA133" t="n">
-        <v>2.41</v>
+        <v>2</v>
       </c>
       <c r="AB133" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AC133" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AD133" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AE133" t="n">
-        <v>1.34</v>
+        <v>1.67</v>
       </c>
       <c r="AF133" t="n">
-        <v>1.58</v>
+        <v>2.15</v>
       </c>
       <c r="AG133" t="n">
-        <v>2</v>
+        <v>2.95</v>
       </c>
       <c r="AH133" t="n">
-        <v>2.48</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Germany 2. Bundesliga</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B134" s="2" t="n">
         <v>45052.64583333334</v>
       </c>
       <c r="C134" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Darmstadt 98</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2.03</v>
+        <v>3.14</v>
       </c>
       <c r="G134" t="n">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="H134" t="n">
-        <v>3.15</v>
+        <v>1.93</v>
       </c>
       <c r="I134" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="J134" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K134" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="L134" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M134" t="n">
-        <v>1.76</v>
+        <v>1.55</v>
       </c>
       <c r="N134" t="n">
-        <v>1.95</v>
+        <v>2.28</v>
       </c>
       <c r="O134" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="P134" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.63</v>
+        <v>1.42</v>
       </c>
       <c r="R134" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="S134" t="n">
-        <v>1.28</v>
+        <v>1.85</v>
       </c>
       <c r="T134" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="U134" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="V134" t="n">
-        <v>2.33</v>
+        <v>1.6</v>
       </c>
       <c r="W134" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="X134" t="n">
-        <v>1.78</v>
+        <v>2.13</v>
       </c>
       <c r="Y134" t="n">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="Z134" t="n">
-        <v>3.39</v>
+        <v>4.01</v>
       </c>
       <c r="AA134" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC134" t="n">
         <v>1.75</v>
       </c>
-      <c r="AB134" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC134" t="n">
-        <v>2.44</v>
-      </c>
       <c r="AD134" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AE134" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AF134" t="n">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="AG134" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AH134" t="n">
-        <v>3.3</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Germany 2. Bundesliga</t>
         </is>
       </c>
       <c r="B135" s="2" t="n">
         <v>45052.64583333334</v>
       </c>
       <c r="C135" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Darmstadt 98</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="G135" t="n">
-        <v>3.03</v>
+        <v>3.45</v>
       </c>
       <c r="H135" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="I135" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="J135" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="K135" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="L135" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="M135" t="n">
-        <v>2.34</v>
+        <v>1.76</v>
       </c>
       <c r="N135" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="O135" t="n">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="P135" t="n">
-        <v>2.35</v>
+        <v>3.05</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.05</v>
+        <v>1.63</v>
       </c>
       <c r="R135" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="S135" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="T135" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="U135" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V135" t="n">
-        <v>1.17</v>
+        <v>2.33</v>
       </c>
       <c r="W135" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="X135" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="Y135" t="n">
-        <v>1.05</v>
+        <v>1.61</v>
       </c>
       <c r="Z135" t="n">
-        <v>2.94</v>
+        <v>3.39</v>
       </c>
       <c r="AA135" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AB135" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC135" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AD135" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AE135" t="n">
         <v>1.46</v>
       </c>
-      <c r="AE135" t="n">
-        <v>1.84</v>
-      </c>
       <c r="AF135" t="n">
-        <v>2.39</v>
+        <v>1.85</v>
       </c>
       <c r="AG135" t="n">
-        <v>3.28</v>
+        <v>2.4</v>
       </c>
       <c r="AH135" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B136" s="2" t="n">
-        <v>45052.65625</v>
+        <v>45052.64583333334</v>
       </c>
       <c r="C136" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Agropecuario</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>San Martín San Juan</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="G136" t="n">
-        <v>3.17</v>
+        <v>2.67</v>
       </c>
       <c r="H136" t="n">
         <v>3.22</v>
       </c>
       <c r="I136" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="J136" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="K136" t="n">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="L136" t="n">
-        <v>3.4</v>
+        <v>2.35</v>
       </c>
       <c r="M136" t="n">
-        <v>1.97</v>
+        <v>2.65</v>
       </c>
       <c r="N136" t="n">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="O136" t="n">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="P136" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="R136" t="n">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="S136" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="T136" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U136" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V136" t="n">
-        <v>0.63</v>
+        <v>2.33</v>
       </c>
       <c r="W136" t="n">
-        <v>0.63</v>
+        <v>1.57</v>
       </c>
       <c r="X136" t="n">
-        <v>1.49</v>
+        <v>1.95</v>
       </c>
       <c r="Y136" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="Z136" t="n">
-        <v>2.76</v>
+        <v>3.21</v>
       </c>
       <c r="AA136" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="AB136" t="n">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC136" t="n">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="AD136" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="AE136" t="n">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="AF136" t="n">
-        <v>2.14</v>
+        <v>2.37</v>
       </c>
       <c r="AG136" t="n">
-        <v>2.8</v>
+        <v>3.28</v>
       </c>
       <c r="AH136" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B137" s="2" t="n">
         <v>45052.65625</v>
       </c>
       <c r="C137" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="G137" t="n">
-        <v>3.07</v>
+        <v>3.17</v>
       </c>
       <c r="H137" t="n">
-        <v>3.36</v>
+        <v>3.22</v>
       </c>
       <c r="I137" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="J137" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K137" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="L137" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M137" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="N137" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="O137" t="n">
         <v>1.44</v>
@@ -15503,349 +15503,349 @@
         <v>2.55</v>
       </c>
       <c r="Q137" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R137" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S137" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="T137" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="U137" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="V137" t="n">
-        <v>1.5</v>
+        <v>0.63</v>
       </c>
       <c r="W137" t="n">
-        <v>1.33</v>
+        <v>0.63</v>
       </c>
       <c r="X137" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="Y137" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="Z137" t="n">
-        <v>2.83</v>
+        <v>2.76</v>
       </c>
       <c r="AA137" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AB137" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC137" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AD137" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AE137" t="n">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AF137" t="n">
-        <v>1.83</v>
+        <v>2.14</v>
       </c>
       <c r="AG137" t="n">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="AH137" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B138" s="2" t="n">
         <v>45052.65625</v>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Standard Liège</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>KAA Gent</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2.7</v>
+        <v>1.98</v>
       </c>
       <c r="G138" t="n">
-        <v>3.24</v>
+        <v>3.07</v>
       </c>
       <c r="H138" t="n">
-        <v>2.08</v>
+        <v>3.36</v>
       </c>
       <c r="I138" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="J138" t="n">
-        <v>13.75</v>
+        <v>8</v>
       </c>
       <c r="K138" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="L138" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="M138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N138" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P138" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U138" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X138" t="n">
         <v>1.67</v>
       </c>
-      <c r="N138" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O138" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P138" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q138" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R138" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S138" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="T138" t="n">
+      <c r="Y138" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD138" t="n">
         <v>1.28</v>
       </c>
-      <c r="U138" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V138" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="W138" t="n">
+      <c r="AE138" t="n">
         <v>1.47</v>
       </c>
-      <c r="X138" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Y138" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Z138" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="AA138" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AB138" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC138" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AD138" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AE138" t="n">
-        <v>1.35</v>
-      </c>
       <c r="AF138" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AG138" t="n">
-        <v>2.12</v>
+        <v>2.35</v>
       </c>
       <c r="AH138" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Brazil Serie C</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B139" s="2" t="n">
-        <v>45052.66666666666</v>
+        <v>45052.65625</v>
       </c>
       <c r="C139" t="n">
         <v>2</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Standard Liège</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>América RN</t>
+          <t>KAA Gent</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2.21</v>
+        <v>2.7</v>
       </c>
       <c r="G139" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="H139" t="n">
-        <v>3.25</v>
+        <v>2.08</v>
       </c>
       <c r="I139" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="J139" t="n">
-        <v>8.699999999999999</v>
+        <v>13.75</v>
       </c>
       <c r="K139" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="L139" t="n">
-        <v>2.75</v>
+        <v>4.1</v>
       </c>
       <c r="M139" t="n">
-        <v>2.22</v>
+        <v>1.72</v>
       </c>
       <c r="N139" t="n">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="O139" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="P139" t="n">
-        <v>2.6</v>
+        <v>3.24</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="R139" t="n">
-        <v>1.81</v>
+        <v>2.18</v>
       </c>
       <c r="S139" t="n">
-        <v>1.29</v>
+        <v>1.74</v>
       </c>
       <c r="T139" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="U139" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="V139" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="W139" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X139" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="Y139" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="Z139" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="AA139" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AB139" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC139" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AD139" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE139" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF139" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG139" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH139" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Brazil Serie D</t>
+          <t>Brazil Serie C</t>
         </is>
       </c>
       <c r="B140" s="2" t="n">
         <v>45052.66666666666</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Cascavel CR</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>CRAC</t>
+          <t>América RN</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M140" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O140" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P140" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q140" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R140" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="S140" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="T140" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U140" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V140" t="n">
         <v>0</v>
@@ -15863,25 +15863,25 @@
         <v>0</v>
       </c>
       <c r="AA140" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AB140" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC140" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AD140" t="n">
         <v>0</v>
       </c>
       <c r="AE140" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF140" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AG140" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH140" t="n">
         <v>0</v>
@@ -15901,61 +15901,61 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>CEOV Operário</t>
+          <t>Cascavel CR</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Brasiliense</t>
+          <t>CRAC</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="L141" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="M141" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N141" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O141" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P141" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="Q141" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="R141" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S141" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="T141" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U141" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V141" t="n">
         <v>0</v>
@@ -15994,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="AH141" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="142">
@@ -16011,61 +16011,61 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interporto</t>
+          <t>CEOV Operário</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>União Rondonópolis</t>
+          <t>Brasiliense</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="M142" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="N142" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="O142" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P142" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="Q142" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="R142" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S142" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T142" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U142" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V142" t="n">
         <v>0</v>
@@ -16098,10 +16098,10 @@
         <v>0</v>
       </c>
       <c r="AF142" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG142" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH142" t="n">
         <v>0</v>
@@ -16121,12 +16121,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Ceilândia</t>
+          <t>Interporto</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Iporá</t>
+          <t>União Rondonópolis</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -16240,13 +16240,13 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>5.35</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -16261,10 +16261,10 @@
         <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O144" t="n">
         <v>0</v>
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="AF144" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG144" t="n">
         <v>0</v>
@@ -16330,96 +16330,96 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Bolivia LFPB</t>
+          <t>Brazil Serie D</t>
         </is>
       </c>
       <c r="B145" s="2" t="n">
         <v>45052.66666666666</v>
       </c>
       <c r="C145" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Trem</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Club Always Ready</t>
+          <t>Tuna Luso</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1.95</v>
+        <v>2.47</v>
       </c>
       <c r="G145" t="n">
-        <v>3.09</v>
+        <v>3.03</v>
       </c>
       <c r="H145" t="n">
-        <v>3.28</v>
+        <v>2.6</v>
       </c>
       <c r="I145" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="J145" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="K145" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="L145" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M145" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="N145" t="n">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="O145" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="P145" t="n">
-        <v>2.5</v>
+        <v>2.81</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="R145" t="n">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="S145" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="T145" t="n">
         <v>1.28</v>
       </c>
       <c r="U145" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="V145" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="W145" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="X145" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="Y145" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="Z145" t="n">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="AA145" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AB145" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC145" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AD145" t="n">
         <v>0</v>
@@ -16428,7 +16428,7 @@
         <v>0</v>
       </c>
       <c r="AF145" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AG145" t="n">
         <v>0</v>
@@ -16440,111 +16440,111 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B146" s="2" t="n">
         <v>45052.66666666666</v>
       </c>
       <c r="C146" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Criciúma</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Racing Córdoba</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1.74</v>
+        <v>2.3</v>
       </c>
       <c r="G146" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="H146" t="n">
-        <v>4.64</v>
+        <v>3</v>
       </c>
       <c r="I146" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="J146" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K146" t="n">
         <v>1.44</v>
       </c>
       <c r="L146" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="M146" t="n">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="N146" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="O146" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="P146" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R146" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="S146" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="T146" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="U146" t="n">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="V146" t="n">
-        <v>3</v>
+        <v>1.17</v>
       </c>
       <c r="W146" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="X146" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="Y146" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="Z146" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="AA146" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AB146" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC146" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AD146" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE146" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF146" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="AG146" t="n">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="AH146" t="n">
-        <v>2.6</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="147">
@@ -16570,13 +16570,13 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="G147" t="n">
-        <v>3.18</v>
+        <v>3.5</v>
       </c>
       <c r="H147" t="n">
-        <v>3.37</v>
+        <v>4.6</v>
       </c>
       <c r="I147" t="n">
         <v>1.06</v>
@@ -16591,10 +16591,10 @@
         <v>3</v>
       </c>
       <c r="M147" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="N147" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="O147" t="n">
         <v>1.44</v>
@@ -16603,10 +16603,10 @@
         <v>2.63</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R147" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S147" t="n">
         <v>1.22</v>
@@ -16633,13 +16633,13 @@
         <v>3.58</v>
       </c>
       <c r="AA147" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="AB147" t="n">
         <v>9</v>
       </c>
       <c r="AC147" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AD147" t="n">
         <v>1.13</v>
@@ -16660,111 +16660,111 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Bolivia LFPB</t>
         </is>
       </c>
       <c r="B148" s="2" t="n">
         <v>45052.66666666666</v>
       </c>
       <c r="C148" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Racing Córdoba</t>
+          <t>Club Always Ready</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="G148" t="n">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="H148" t="n">
-        <v>2.71</v>
+        <v>2.32</v>
       </c>
       <c r="I148" t="n">
         <v>1.06</v>
       </c>
       <c r="J148" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="K148" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="L148" t="n">
-        <v>2.62</v>
+        <v>3.5</v>
       </c>
       <c r="M148" t="n">
-        <v>2.38</v>
+        <v>1.92</v>
       </c>
       <c r="N148" t="n">
-        <v>1.52</v>
+        <v>1.9</v>
       </c>
       <c r="O148" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P148" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q148" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="R148" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S148" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="T148" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="U148" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="V148" t="n">
-        <v>1.17</v>
+        <v>2.2</v>
       </c>
       <c r="W148" t="n">
-        <v>0.83</v>
+        <v>2.33</v>
       </c>
       <c r="X148" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD148" t="n">
         <v>1.26</v>
       </c>
-      <c r="Y148" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z148" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AA148" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AB148" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AC148" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AD148" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AE148" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AF148" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AG148" t="n">
-        <v>2.34</v>
+        <v>2.45</v>
       </c>
       <c r="AH148" t="n">
-        <v>3.18</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="149">
@@ -16900,13 +16900,13 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G150" t="n">
-        <v>4.4</v>
+        <v>4.27</v>
       </c>
       <c r="H150" t="n">
-        <v>5.2</v>
+        <v>4.96</v>
       </c>
       <c r="I150" t="n">
         <v>1.02</v>
@@ -16924,7 +16924,7 @@
         <v>1.5</v>
       </c>
       <c r="N150" t="n">
-        <v>2.4</v>
+        <v>2.51</v>
       </c>
       <c r="O150" t="n">
         <v>1.25</v>
@@ -16990,111 +16990,111 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Brazil Serie D</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B151" s="2" t="n">
         <v>45052.66666666666</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Trem</t>
+          <t>Criciúma</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Tuna Luso</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="L151" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="M151" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N151" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O151" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P151" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="Q151" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R151" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S151" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T151" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U151" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V151" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W151" t="n">
         <v>0</v>
       </c>
       <c r="X151" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Y151" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Z151" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AA151" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AB151" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC151" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AD151" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE151" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AF151" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH151" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="152">
@@ -17230,13 +17230,13 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2.8</v>
+        <v>2.46</v>
       </c>
       <c r="G153" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H153" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="I153" t="n">
         <v>1.07</v>
@@ -17251,10 +17251,10 @@
         <v>2.75</v>
       </c>
       <c r="M153" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N153" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O153" t="n">
         <v>1.46</v>
@@ -17293,22 +17293,22 @@
         <v>0</v>
       </c>
       <c r="AA153" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AB153" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC153" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AD153" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AE153" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF153" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AG153" t="n">
         <v>0</v>
@@ -17340,52 +17340,52 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L154" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="M154" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="N154" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="O154" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P154" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="Q154" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="R154" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S154" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="T154" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U154" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="V154" t="n">
         <v>0</v>
@@ -17450,52 +17450,52 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L155" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="M155" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="N155" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="O155" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P155" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q155" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R155" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S155" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T155" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U155" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V155" t="n">
         <v>0</v>
@@ -17560,52 +17560,52 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J156" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="M156" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="N156" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O156" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P156" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="Q156" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="R156" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="S156" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T156" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U156" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="V156" t="n">
         <v>0</v>
@@ -17670,31 +17670,31 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G157" t="n">
-        <v>3.14</v>
+        <v>3.35</v>
       </c>
       <c r="H157" t="n">
-        <v>3.44</v>
+        <v>3.39</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="K157" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="L157" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M157" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="N157" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="O157" t="n">
         <v>1.4</v>
@@ -17712,7 +17712,7 @@
         <v>1.22</v>
       </c>
       <c r="T157" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U157" t="n">
         <v>1.62</v>
@@ -17780,52 +17780,52 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J158" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L158" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="M158" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="N158" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O158" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P158" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="Q158" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="R158" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S158" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="T158" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U158" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="V158" t="n">
         <v>0</v>
@@ -17858,7 +17858,7 @@
         <v>0</v>
       </c>
       <c r="AF158" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG158" t="n">
         <v>0</v>
@@ -18000,13 +18000,13 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="G160" t="n">
-        <v>2.99</v>
+        <v>3.1</v>
       </c>
       <c r="H160" t="n">
-        <v>4.17</v>
+        <v>4.25</v>
       </c>
       <c r="I160" t="n">
         <v>1.09</v>
@@ -18021,10 +18021,10 @@
         <v>2.52</v>
       </c>
       <c r="M160" t="n">
-        <v>2.41</v>
+        <v>2.3</v>
       </c>
       <c r="N160" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O160" t="n">
         <v>1.55</v>
@@ -18063,22 +18063,22 @@
         <v>2.44</v>
       </c>
       <c r="AA160" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB160" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC160" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AD160" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AE160" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AF160" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AG160" t="n">
         <v>0</v>
@@ -18220,13 +18220,13 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="G162" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="H162" t="n">
-        <v>3.88</v>
+        <v>2.91</v>
       </c>
       <c r="I162" t="n">
         <v>1.05</v>
@@ -18241,10 +18241,10 @@
         <v>3</v>
       </c>
       <c r="M162" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="N162" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="O162" t="n">
         <v>1.46</v>
@@ -18330,13 +18330,13 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="G163" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="H163" t="n">
-        <v>5.22</v>
+        <v>3.8</v>
       </c>
       <c r="I163" t="n">
         <v>1.09</v>
@@ -18351,10 +18351,10 @@
         <v>2.49</v>
       </c>
       <c r="M163" t="n">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="N163" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O163" t="n">
         <v>1.54</v>
@@ -18440,52 +18440,52 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J164" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M164" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="N164" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="O164" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P164" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="Q164" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="R164" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="S164" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T164" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U164" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="V164" t="n">
         <v>0</v>
@@ -18518,7 +18518,7 @@
         <v>0</v>
       </c>
       <c r="AF164" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG164" t="n">
         <v>0</v>
@@ -18550,52 +18550,52 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="G165" t="n">
-        <v>3.3</v>
+        <v>2.89</v>
       </c>
       <c r="H165" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J165" t="n">
-        <v>0</v>
+        <v>7.35</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="L165" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="M165" t="n">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="N165" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="O165" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P165" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="Q165" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="R165" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="S165" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T165" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U165" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V165" t="n">
         <v>0</v>
@@ -18628,7 +18628,7 @@
         <v>0</v>
       </c>
       <c r="AF165" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG165" t="n">
         <v>0</v>
@@ -18663,10 +18663,10 @@
         <v>2.55</v>
       </c>
       <c r="G166" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H166" t="n">
         <v>2.65</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2.7</v>
       </c>
       <c r="I166" t="n">
         <v>1.07</v>
@@ -18675,16 +18675,16 @@
         <v>6.5</v>
       </c>
       <c r="K166" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="L166" t="n">
-        <v>2.46</v>
+        <v>2.55</v>
       </c>
       <c r="M166" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N166" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O166" t="n">
         <v>1.56</v>
@@ -18723,25 +18723,25 @@
         <v>2.99</v>
       </c>
       <c r="AA166" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AB166" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC166" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AD166" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE166" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AF166" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AG166" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AH166" t="n">
         <v>0</v>
@@ -18770,13 +18770,13 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="G167" t="n">
-        <v>3.71</v>
+        <v>3.8</v>
       </c>
       <c r="H167" t="n">
-        <v>5.13</v>
+        <v>5.25</v>
       </c>
       <c r="I167" t="n">
         <v>1.05</v>
@@ -18791,10 +18791,10 @@
         <v>3.38</v>
       </c>
       <c r="M167" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="N167" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O167" t="n">
         <v>1.36</v>
@@ -19100,13 +19100,13 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1.73</v>
+        <v>2.12</v>
       </c>
       <c r="G170" t="n">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="H170" t="n">
-        <v>3.68</v>
+        <v>3.1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -19121,10 +19121,10 @@
         <v>0</v>
       </c>
       <c r="M170" t="n">
-        <v>1.81</v>
+        <v>2.03</v>
       </c>
       <c r="N170" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O170" t="n">
         <v>0</v>
@@ -19231,10 +19231,10 @@
         <v>2.8</v>
       </c>
       <c r="M171" t="n">
-        <v>2.17</v>
+        <v>2.22</v>
       </c>
       <c r="N171" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="O171" t="n">
         <v>1.48</v>
@@ -19320,13 +19320,13 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="G172" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="H172" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I172" t="n">
         <v>1.1</v>
@@ -19392,10 +19392,10 @@
         <v>0</v>
       </c>
       <c r="AD172" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE172" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF172" t="n">
         <v>1.65</v>
@@ -19430,13 +19430,13 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2.51</v>
+        <v>2.2</v>
       </c>
       <c r="G173" t="n">
-        <v>2.79</v>
+        <v>3.25</v>
       </c>
       <c r="H173" t="n">
-        <v>2.68</v>
+        <v>3.15</v>
       </c>
       <c r="I173" t="n">
         <v>1.1</v>
@@ -19493,19 +19493,19 @@
         <v>2.67</v>
       </c>
       <c r="AA173" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AB173" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AC173" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AD173" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE173" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF173" t="n">
         <v>1.85</v>
@@ -19540,13 +19540,13 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="G174" t="n">
-        <v>3.01</v>
+        <v>3.2</v>
       </c>
       <c r="H174" t="n">
-        <v>2.81</v>
+        <v>3.5</v>
       </c>
       <c r="I174" t="n">
         <v>1.1</v>
@@ -19603,19 +19603,19 @@
         <v>2.93</v>
       </c>
       <c r="AA174" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AB174" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC174" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AD174" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE174" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF174" t="n">
         <v>1.75</v>
@@ -19650,13 +19650,13 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1.48</v>
+        <v>2.31</v>
       </c>
       <c r="G175" t="n">
-        <v>3.88</v>
+        <v>3.45</v>
       </c>
       <c r="H175" t="n">
-        <v>4.84</v>
+        <v>2.66</v>
       </c>
       <c r="I175" t="n">
         <v>1.05</v>
@@ -19671,10 +19671,10 @@
         <v>3.25</v>
       </c>
       <c r="M175" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="N175" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O175" t="n">
         <v>1.4</v>
@@ -19722,19 +19722,19 @@
         <v>2.77</v>
       </c>
       <c r="AD175" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE175" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG175" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH175" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="176">
@@ -19760,13 +19760,13 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1.97</v>
+        <v>1.78</v>
       </c>
       <c r="G176" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H176" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="I176" t="n">
         <v>1.07</v>
@@ -19784,7 +19784,7 @@
         <v>2.2</v>
       </c>
       <c r="N176" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O176" t="n">
         <v>1.44</v>
@@ -19823,25 +19823,25 @@
         <v>0</v>
       </c>
       <c r="AA176" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AB176" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AC176" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AD176" t="n">
         <v>0</v>
       </c>
       <c r="AE176" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF176" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG176" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AH176" t="n">
         <v>0</v>
@@ -19870,13 +19870,13 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1.75</v>
+        <v>2.07</v>
       </c>
       <c r="G177" t="n">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="H177" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="I177" t="n">
         <v>1.07</v>
@@ -19891,10 +19891,10 @@
         <v>2.44</v>
       </c>
       <c r="M177" t="n">
-        <v>2.46</v>
+        <v>2.47</v>
       </c>
       <c r="N177" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="O177" t="n">
         <v>1.55</v>
@@ -19980,52 +19980,52 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J178" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K178" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="L178" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="M178" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="N178" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O178" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P178" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="Q178" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R178" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S178" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T178" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U178" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V178" t="n">
         <v>0</v>
@@ -20090,13 +20090,13 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>2.85</v>
+        <v>2.26</v>
       </c>
       <c r="G179" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H179" t="n">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="I179" t="n">
         <v>1.07</v>
@@ -20114,7 +20114,7 @@
         <v>2.2</v>
       </c>
       <c r="N179" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O179" t="n">
         <v>1.44</v>
@@ -20153,13 +20153,13 @@
         <v>0</v>
       </c>
       <c r="AA179" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AB179" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC179" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AD179" t="n">
         <v>0</v>
@@ -20168,13 +20168,13 @@
         <v>0</v>
       </c>
       <c r="AF179" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG179" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH179" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="180">
@@ -20215,16 +20215,16 @@
         <v>6.5</v>
       </c>
       <c r="K180" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="L180" t="n">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="M180" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="N180" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="O180" t="n">
         <v>1.56</v>
@@ -20310,13 +20310,13 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="G181" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H181" t="n">
-        <v>2.39</v>
+        <v>3</v>
       </c>
       <c r="I181" t="n">
         <v>1.05</v>
@@ -20331,10 +20331,10 @@
         <v>3.75</v>
       </c>
       <c r="M181" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="N181" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="O181" t="n">
         <v>1.36</v>
@@ -20385,16 +20385,16 @@
         <v>0</v>
       </c>
       <c r="AE181" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF181" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG181" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AH181" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="182">
@@ -20420,13 +20420,13 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="G182" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="H182" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="I182" t="n">
         <v>1.05</v>
@@ -20441,10 +20441,10 @@
         <v>3.5</v>
       </c>
       <c r="M182" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="N182" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="O182" t="n">
         <v>1.36</v>
@@ -20492,16 +20492,16 @@
         <v>0</v>
       </c>
       <c r="AD182" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AE182" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF182" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AG182" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AH182" t="n">
         <v>0</v>
@@ -20593,13 +20593,13 @@
         <v>2.92</v>
       </c>
       <c r="AA183" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AB183" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC183" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AD183" t="n">
         <v>1.3</v>
@@ -20640,13 +20640,13 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G184" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H184" t="n">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="I184" t="n">
         <v>1.04</v>
@@ -20661,10 +20661,10 @@
         <v>2.84</v>
       </c>
       <c r="M184" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="N184" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O184" t="n">
         <v>1.44</v>
@@ -20712,16 +20712,16 @@
         <v>0</v>
       </c>
       <c r="AD184" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AE184" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AF184" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AG184" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AH184" t="n">
         <v>0</v>
@@ -20822,19 +20822,19 @@
         <v>0</v>
       </c>
       <c r="AD185" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE185" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF185" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AG185" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH185" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="186">
@@ -20991,10 +20991,10 @@
         <v>2.51</v>
       </c>
       <c r="M187" t="n">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="N187" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="O187" t="n">
         <v>1.53</v>
@@ -21080,13 +21080,13 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>3.43</v>
+        <v>3.4</v>
       </c>
       <c r="G188" t="n">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="H188" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="I188" t="n">
         <v>1.06</v>
@@ -21101,10 +21101,10 @@
         <v>3.6</v>
       </c>
       <c r="M188" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="N188" t="n">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="O188" t="n">
         <v>1.48</v>
@@ -21193,10 +21193,10 @@
         <v>1.85</v>
       </c>
       <c r="G189" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H189" t="n">
-        <v>3.98</v>
+        <v>4.15</v>
       </c>
       <c r="I189" t="n">
         <v>1.1</v>
@@ -21211,10 +21211,10 @@
         <v>2.7</v>
       </c>
       <c r="M189" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="N189" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O189" t="n">
         <v>1.51</v>
@@ -21253,28 +21253,28 @@
         <v>2.5</v>
       </c>
       <c r="AA189" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AB189" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC189" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AD189" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AE189" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AF189" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AG189" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AH189" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="190">
@@ -21300,13 +21300,13 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="G190" t="n">
-        <v>3.23</v>
+        <v>3.6</v>
       </c>
       <c r="H190" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="I190" t="n">
         <v>1.05</v>
@@ -21321,7 +21321,7 @@
         <v>3.75</v>
       </c>
       <c r="M190" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="N190" t="n">
         <v>1.96</v>
@@ -21375,16 +21375,16 @@
         <v>0</v>
       </c>
       <c r="AE190" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF190" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG190" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AH190" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="191">
@@ -21410,13 +21410,13 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="G191" t="n">
-        <v>3.17</v>
+        <v>3.35</v>
       </c>
       <c r="H191" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="I191" t="n">
         <v>1.05</v>
@@ -21431,10 +21431,10 @@
         <v>3.5</v>
       </c>
       <c r="M191" t="n">
-        <v>1.73</v>
+        <v>2.01</v>
       </c>
       <c r="N191" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="O191" t="n">
         <v>1.36</v>
@@ -21482,16 +21482,16 @@
         <v>0</v>
       </c>
       <c r="AD191" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE191" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF191" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AG191" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AH191" t="n">
         <v>0</v>
@@ -21520,13 +21520,13 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="G192" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="H192" t="n">
-        <v>3.41</v>
+        <v>3.35</v>
       </c>
       <c r="I192" t="n">
         <v>1.04</v>
@@ -21541,10 +21541,10 @@
         <v>3.75</v>
       </c>
       <c r="M192" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="N192" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O192" t="n">
         <v>1.33</v>
@@ -21595,16 +21595,16 @@
         <v>0</v>
       </c>
       <c r="AE192" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF192" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG192" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH192" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="193">
@@ -21630,13 +21630,13 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G193" t="n">
-        <v>3.21</v>
+        <v>3.5</v>
       </c>
       <c r="H193" t="n">
-        <v>3.03</v>
+        <v>3.5</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -21651,10 +21651,10 @@
         <v>0</v>
       </c>
       <c r="M193" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="N193" t="n">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="O193" t="n">
         <v>0</v>
@@ -22091,10 +22091,10 @@
         <v>3.83</v>
       </c>
       <c r="M197" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="N197" t="n">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="O197" t="n">
         <v>1.38</v>
@@ -22201,10 +22201,10 @@
         <v>3.82</v>
       </c>
       <c r="M198" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="N198" t="n">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="O198" t="n">
         <v>1.33</v>
@@ -22311,10 +22311,10 @@
         <v>3.32</v>
       </c>
       <c r="M199" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="N199" t="n">
         <v>1.76</v>
-      </c>
-      <c r="N199" t="n">
-        <v>1.96</v>
       </c>
       <c r="O199" t="n">
         <v>1.41</v>
@@ -22534,7 +22534,7 @@
         <v>1.68</v>
       </c>
       <c r="N201" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="O201" t="n">
         <v>1.35</v>
@@ -22620,13 +22620,13 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="G202" t="n">
-        <v>4.01</v>
+        <v>4.75</v>
       </c>
       <c r="H202" t="n">
-        <v>4.51</v>
+        <v>5.7</v>
       </c>
       <c r="I202" t="n">
         <v>1.02</v>
@@ -22641,10 +22641,10 @@
         <v>4.65</v>
       </c>
       <c r="M202" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="N202" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="O202" t="n">
         <v>1.29</v>
@@ -22808,10 +22808,10 @@
         <v>0</v>
       </c>
       <c r="AF203" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG203" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH203" t="n">
         <v>2.1</v>
@@ -22840,52 +22840,52 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="G204" t="n">
-        <v>3.32</v>
+        <v>3.95</v>
       </c>
       <c r="H204" t="n">
-        <v>4.23</v>
+        <v>5.1</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J204" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L204" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M204" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="N204" t="n">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
       <c r="O204" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P204" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q204" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="R204" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S204" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T204" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U204" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V204" t="n">
         <v>3</v>
@@ -22903,28 +22903,28 @@
         <v>2.77</v>
       </c>
       <c r="AA204" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AB204" t="n">
         <v>9</v>
       </c>
       <c r="AC204" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="AD204" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE204" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF204" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG204" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH204" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
     </row>
   </sheetData>
